--- a/Shablon/MSO-X3054A.xlsx
+++ b/Shablon/MSO-X3054A.xlsx
@@ -1478,138 +1478,62 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1618,6 +1542,82 @@
     </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1955,8 +1955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L148"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A94" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H108" sqref="H108"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A91" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C132" sqref="C132:D132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1969,18 +1969,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="99" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
     </row>
     <row r="2" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32"/>
@@ -1994,14 +1994,14 @@
       <c r="I2" s="31"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="101" t="s">
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="58" t="s">
         <v>133</v>
       </c>
       <c r="G3" s="33"/>
@@ -2021,10 +2021,10 @@
       <c r="I4" s="31"/>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="82"/>
+      <c r="B5" s="81"/>
       <c r="C5" s="50" t="s">
         <v>131</v>
       </c>
@@ -2038,10 +2038,10 @@
       <c r="I5" s="35"/>
     </row>
     <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="82"/>
+      <c r="B6" s="81"/>
       <c r="C6" s="54" t="s">
         <v>133</v>
       </c>
@@ -2053,18 +2053,18 @@
       <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="82"/>
-      <c r="C7" s="63">
+      <c r="B7" s="81"/>
+      <c r="C7" s="100">
         <v>2015</v>
       </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
       <c r="I7" s="35"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.2">
@@ -2072,21 +2072,21 @@
         <v>90</v>
       </c>
       <c r="B8" s="38"/>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="101" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
       <c r="I8" s="35"/>
     </row>
     <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="B9" s="82"/>
+      <c r="B9" s="81"/>
       <c r="C9" s="54" t="s">
         <v>134</v>
       </c>
@@ -2098,33 +2098,33 @@
       <c r="I9" s="35"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="83" t="s">
+      <c r="A10" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="B10" s="83"/>
-      <c r="C10" s="64" t="s">
+      <c r="B10" s="82"/>
+      <c r="C10" s="101" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
       <c r="I10" s="39"/>
     </row>
     <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="83" t="s">
+      <c r="A11" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="83"/>
-      <c r="C11" s="65" t="s">
+      <c r="B11" s="82"/>
+      <c r="C11" s="102" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
       <c r="I11" s="40"/>
     </row>
     <row r="12" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2163,96 +2163,96 @@
       <c r="I14" s="31"/>
     </row>
     <row r="15" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="66" t="s">
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="66"/>
-      <c r="G15" s="68" t="s">
+      <c r="F15" s="85"/>
+      <c r="G15" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="H15" s="74"/>
+      <c r="H15" s="84"/>
     </row>
     <row r="16" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="104" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="67" t="s">
+      <c r="B16" s="104"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="103" t="s">
         <v>136</v>
       </c>
-      <c r="F16" s="67"/>
-      <c r="G16" s="68" t="s">
+      <c r="F16" s="103"/>
+      <c r="G16" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="H16" s="74"/>
+      <c r="H16" s="84"/>
     </row>
     <row r="17" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="104" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="67" t="s">
+      <c r="B17" s="104"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="103" t="s">
         <v>137</v>
       </c>
-      <c r="F17" s="67"/>
-      <c r="G17" s="68" t="s">
+      <c r="F17" s="103"/>
+      <c r="G17" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="H17" s="74"/>
+      <c r="H17" s="84"/>
     </row>
     <row r="18" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="67" t="s">
+      <c r="B18" s="104"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="103" t="s">
         <v>138</v>
       </c>
-      <c r="F18" s="67"/>
-      <c r="G18" s="68" t="s">
+      <c r="F18" s="103"/>
+      <c r="G18" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="H18" s="74"/>
+      <c r="H18" s="84"/>
     </row>
     <row r="19" spans="1:10" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="70" t="s">
+      <c r="A19" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="79" t="s">
+      <c r="B19" s="92"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="H19" s="79"/>
+      <c r="H19" s="90"/>
     </row>
     <row r="20" spans="1:10" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="79" t="s">
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="79"/>
+      <c r="H20" s="90"/>
     </row>
     <row r="21" spans="1:10" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="41"/>
@@ -2290,53 +2290,53 @@
       <c r="I23" s="32"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="66" t="s">
+      <c r="A24" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66" t="s">
+      <c r="B24" s="85"/>
+      <c r="C24" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="66"/>
+      <c r="D24" s="85"/>
       <c r="E24" s="47"/>
       <c r="F24" s="47"/>
       <c r="G24" s="32"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="80" t="s">
+      <c r="A25" s="94" t="s">
         <v>107</v>
       </c>
-      <c r="B25" s="81"/>
-      <c r="C25" s="80">
+      <c r="B25" s="95"/>
+      <c r="C25" s="94">
         <v>276568182</v>
       </c>
-      <c r="D25" s="81"/>
+      <c r="D25" s="95"/>
       <c r="E25" s="47"/>
       <c r="F25" s="47"/>
       <c r="G25" s="32"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="75" t="s">
+      <c r="A26" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="75"/>
-      <c r="C26" s="76">
+      <c r="B26" s="86"/>
+      <c r="C26" s="87">
         <v>1601</v>
       </c>
-      <c r="D26" s="77"/>
+      <c r="D26" s="88"/>
       <c r="E26" s="48"/>
       <c r="F26" s="48"/>
       <c r="G26" s="48"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="73" t="s">
+      <c r="A27" s="105" t="s">
         <v>108</v>
       </c>
-      <c r="B27" s="73"/>
-      <c r="C27" s="73">
+      <c r="B27" s="105"/>
+      <c r="C27" s="105">
         <v>418840</v>
       </c>
-      <c r="D27" s="73"/>
+      <c r="D27" s="105"/>
       <c r="E27" s="49"/>
       <c r="F27" s="49"/>
       <c r="G27" s="32"/>
@@ -2406,17 +2406,17 @@
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="96" t="s">
+      <c r="A33" s="76" t="s">
         <v>111</v>
       </c>
-      <c r="B33" s="96"/>
-      <c r="C33" s="96"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="96"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="96"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76"/>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" s="16" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2498,267 +2498,267 @@
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="87" t="s">
+      <c r="A40" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="88"/>
-      <c r="C40" s="87" t="s">
+      <c r="B40" s="74"/>
+      <c r="C40" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="D40" s="88"/>
+      <c r="D40" s="74"/>
       <c r="E40" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F40" s="85" t="s">
+      <c r="F40" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="G40" s="85"/>
-      <c r="H40" s="60" t="s">
+      <c r="G40" s="62"/>
+      <c r="H40" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="I40" s="60"/>
+      <c r="I40" s="75"/>
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="89" t="s">
+      <c r="A41" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="89"/>
-      <c r="C41" s="89" t="s">
+      <c r="B41" s="70"/>
+      <c r="C41" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="89"/>
-      <c r="E41" s="102" t="s">
+      <c r="D41" s="70"/>
+      <c r="E41" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="F41" s="89" t="s">
+      <c r="F41" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="G41" s="89"/>
-      <c r="H41" s="95" t="s">
+      <c r="G41" s="70"/>
+      <c r="H41" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="I41" s="95"/>
+      <c r="I41" s="71"/>
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="89" t="s">
+      <c r="A42" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="89"/>
-      <c r="C42" s="94" t="s">
+      <c r="B42" s="70"/>
+      <c r="C42" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="D42" s="94"/>
-      <c r="E42" s="102" t="s">
+      <c r="D42" s="72"/>
+      <c r="E42" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="F42" s="89" t="s">
+      <c r="F42" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="89"/>
-      <c r="H42" s="95" t="s">
+      <c r="G42" s="70"/>
+      <c r="H42" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="I42" s="95"/>
+      <c r="I42" s="71"/>
       <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="89" t="s">
+      <c r="A43" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="89"/>
-      <c r="C43" s="89" t="s">
+      <c r="B43" s="70"/>
+      <c r="C43" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="D43" s="89"/>
-      <c r="E43" s="102" t="s">
+      <c r="D43" s="70"/>
+      <c r="E43" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="F43" s="89" t="s">
+      <c r="F43" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="G43" s="89"/>
-      <c r="H43" s="89" t="s">
+      <c r="G43" s="70"/>
+      <c r="H43" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="I43" s="89"/>
+      <c r="I43" s="70"/>
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="89" t="s">
+      <c r="A44" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="B44" s="89"/>
-      <c r="C44" s="89" t="s">
+      <c r="B44" s="70"/>
+      <c r="C44" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="D44" s="89"/>
-      <c r="E44" s="102" t="s">
+      <c r="D44" s="70"/>
+      <c r="E44" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="F44" s="89" t="s">
+      <c r="F44" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="G44" s="89"/>
-      <c r="H44" s="89" t="s">
+      <c r="G44" s="70"/>
+      <c r="H44" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="I44" s="89"/>
+      <c r="I44" s="70"/>
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="89" t="s">
+      <c r="A45" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="89"/>
-      <c r="C45" s="94" t="s">
+      <c r="B45" s="70"/>
+      <c r="C45" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="94"/>
-      <c r="E45" s="102" t="s">
+      <c r="D45" s="72"/>
+      <c r="E45" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="F45" s="89" t="s">
+      <c r="F45" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="G45" s="89"/>
-      <c r="H45" s="89" t="s">
+      <c r="G45" s="70"/>
+      <c r="H45" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="I45" s="89"/>
+      <c r="I45" s="70"/>
       <c r="J45" s="1"/>
     </row>
     <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="89" t="s">
+      <c r="A46" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="B46" s="89"/>
-      <c r="C46" s="89" t="s">
+      <c r="B46" s="70"/>
+      <c r="C46" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="89"/>
-      <c r="E46" s="102" t="s">
+      <c r="D46" s="70"/>
+      <c r="E46" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="F46" s="89" t="s">
+      <c r="F46" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="G46" s="89"/>
-      <c r="H46" s="89" t="s">
+      <c r="G46" s="70"/>
+      <c r="H46" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="I46" s="89"/>
+      <c r="I46" s="70"/>
       <c r="J46" s="1"/>
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="89" t="s">
+      <c r="A47" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="B47" s="89"/>
-      <c r="C47" s="89" t="s">
+      <c r="B47" s="70"/>
+      <c r="C47" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="89"/>
-      <c r="E47" s="102" t="s">
+      <c r="D47" s="70"/>
+      <c r="E47" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="F47" s="89" t="s">
+      <c r="F47" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="G47" s="89"/>
-      <c r="H47" s="89" t="s">
+      <c r="G47" s="70"/>
+      <c r="H47" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="I47" s="89"/>
+      <c r="I47" s="70"/>
       <c r="J47" s="1"/>
     </row>
     <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="89" t="s">
+      <c r="A48" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="B48" s="89"/>
-      <c r="C48" s="89" t="s">
+      <c r="B48" s="70"/>
+      <c r="C48" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="D48" s="89"/>
-      <c r="E48" s="102" t="s">
+      <c r="D48" s="70"/>
+      <c r="E48" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="F48" s="89" t="s">
+      <c r="F48" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="G48" s="89"/>
-      <c r="H48" s="89" t="s">
+      <c r="G48" s="70"/>
+      <c r="H48" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="I48" s="89"/>
+      <c r="I48" s="70"/>
       <c r="J48" s="1"/>
     </row>
     <row r="49" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="89" t="s">
+      <c r="A49" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="B49" s="89"/>
-      <c r="C49" s="89" t="s">
+      <c r="B49" s="70"/>
+      <c r="C49" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="D49" s="89"/>
-      <c r="E49" s="102" t="s">
+      <c r="D49" s="70"/>
+      <c r="E49" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="F49" s="89" t="s">
+      <c r="F49" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="G49" s="89"/>
-      <c r="H49" s="95" t="s">
+      <c r="G49" s="70"/>
+      <c r="H49" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="I49" s="95"/>
+      <c r="I49" s="71"/>
       <c r="J49" s="1"/>
     </row>
     <row r="50" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="89" t="s">
+      <c r="A50" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="B50" s="89"/>
-      <c r="C50" s="89" t="s">
+      <c r="B50" s="70"/>
+      <c r="C50" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="D50" s="89"/>
-      <c r="E50" s="102" t="s">
+      <c r="D50" s="70"/>
+      <c r="E50" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="F50" s="94" t="s">
+      <c r="F50" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="G50" s="94"/>
-      <c r="H50" s="94" t="s">
+      <c r="G50" s="72"/>
+      <c r="H50" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="I50" s="94"/>
+      <c r="I50" s="72"/>
       <c r="J50" s="1"/>
     </row>
     <row r="51" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="89" t="s">
+      <c r="A51" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="89"/>
-      <c r="C51" s="89" t="s">
+      <c r="B51" s="70"/>
+      <c r="C51" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="D51" s="89"/>
-      <c r="E51" s="102" t="s">
+      <c r="D51" s="70"/>
+      <c r="E51" s="59" t="s">
         <v>155</v>
       </c>
-      <c r="F51" s="89" t="s">
+      <c r="F51" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="G51" s="89"/>
-      <c r="H51" s="95" t="s">
+      <c r="G51" s="70"/>
+      <c r="H51" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="I51" s="95"/>
+      <c r="I51" s="71"/>
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2800,267 +2800,267 @@
       <c r="J54" s="1"/>
     </row>
     <row r="55" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="87" t="s">
+      <c r="A55" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="B55" s="88"/>
-      <c r="C55" s="87" t="s">
+      <c r="B55" s="74"/>
+      <c r="C55" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="D55" s="88"/>
+      <c r="D55" s="74"/>
       <c r="E55" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F55" s="85" t="s">
+      <c r="F55" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="G55" s="85"/>
-      <c r="H55" s="60" t="s">
+      <c r="G55" s="62"/>
+      <c r="H55" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="I55" s="60"/>
+      <c r="I55" s="75"/>
       <c r="J55" s="1"/>
     </row>
     <row r="56" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="89" t="s">
+      <c r="A56" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="89"/>
-      <c r="C56" s="89" t="s">
+      <c r="B56" s="70"/>
+      <c r="C56" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="D56" s="89"/>
-      <c r="E56" s="102" t="s">
+      <c r="D56" s="70"/>
+      <c r="E56" s="59" t="s">
         <v>156</v>
       </c>
-      <c r="F56" s="89" t="s">
+      <c r="F56" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="G56" s="89"/>
-      <c r="H56" s="95" t="s">
+      <c r="G56" s="70"/>
+      <c r="H56" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="I56" s="95"/>
+      <c r="I56" s="71"/>
       <c r="J56" s="1"/>
     </row>
     <row r="57" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="89" t="s">
+      <c r="A57" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="B57" s="89"/>
-      <c r="C57" s="94" t="s">
+      <c r="B57" s="70"/>
+      <c r="C57" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="D57" s="94"/>
-      <c r="E57" s="102" t="s">
+      <c r="D57" s="72"/>
+      <c r="E57" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="F57" s="89" t="s">
+      <c r="F57" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="G57" s="89"/>
-      <c r="H57" s="95" t="s">
+      <c r="G57" s="70"/>
+      <c r="H57" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="I57" s="95"/>
+      <c r="I57" s="71"/>
       <c r="J57" s="1"/>
     </row>
     <row r="58" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="89" t="s">
+      <c r="A58" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="89"/>
-      <c r="C58" s="89" t="s">
+      <c r="B58" s="70"/>
+      <c r="C58" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="D58" s="89"/>
-      <c r="E58" s="102" t="s">
+      <c r="D58" s="70"/>
+      <c r="E58" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="F58" s="89" t="s">
+      <c r="F58" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="G58" s="89"/>
-      <c r="H58" s="89" t="s">
+      <c r="G58" s="70"/>
+      <c r="H58" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="I58" s="89"/>
+      <c r="I58" s="70"/>
       <c r="J58" s="1"/>
     </row>
     <row r="59" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="89" t="s">
+      <c r="A59" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="B59" s="89"/>
-      <c r="C59" s="89" t="s">
+      <c r="B59" s="70"/>
+      <c r="C59" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="D59" s="89"/>
-      <c r="E59" s="102" t="s">
+      <c r="D59" s="70"/>
+      <c r="E59" s="59" t="s">
         <v>159</v>
       </c>
-      <c r="F59" s="89" t="s">
+      <c r="F59" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="G59" s="89"/>
-      <c r="H59" s="89" t="s">
+      <c r="G59" s="70"/>
+      <c r="H59" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="I59" s="89"/>
+      <c r="I59" s="70"/>
       <c r="J59" s="1"/>
     </row>
     <row r="60" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="89" t="s">
+      <c r="A60" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="B60" s="89"/>
-      <c r="C60" s="94" t="s">
+      <c r="B60" s="70"/>
+      <c r="C60" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="D60" s="94"/>
-      <c r="E60" s="102" t="s">
+      <c r="D60" s="72"/>
+      <c r="E60" s="59" t="s">
         <v>160</v>
       </c>
-      <c r="F60" s="89" t="s">
+      <c r="F60" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="G60" s="89"/>
-      <c r="H60" s="89" t="s">
+      <c r="G60" s="70"/>
+      <c r="H60" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="I60" s="89"/>
+      <c r="I60" s="70"/>
       <c r="J60" s="1"/>
     </row>
     <row r="61" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="89" t="s">
+      <c r="A61" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="B61" s="89"/>
-      <c r="C61" s="89" t="s">
+      <c r="B61" s="70"/>
+      <c r="C61" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="D61" s="89"/>
-      <c r="E61" s="102" t="s">
+      <c r="D61" s="70"/>
+      <c r="E61" s="59" t="s">
         <v>161</v>
       </c>
-      <c r="F61" s="89" t="s">
+      <c r="F61" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="G61" s="89"/>
-      <c r="H61" s="89" t="s">
+      <c r="G61" s="70"/>
+      <c r="H61" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="I61" s="89"/>
+      <c r="I61" s="70"/>
       <c r="J61" s="1"/>
     </row>
     <row r="62" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="89" t="s">
+      <c r="A62" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="B62" s="89"/>
-      <c r="C62" s="89" t="s">
+      <c r="B62" s="70"/>
+      <c r="C62" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="D62" s="89"/>
-      <c r="E62" s="102" t="s">
+      <c r="D62" s="70"/>
+      <c r="E62" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="F62" s="89" t="s">
+      <c r="F62" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="G62" s="89"/>
-      <c r="H62" s="89" t="s">
+      <c r="G62" s="70"/>
+      <c r="H62" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="I62" s="89"/>
+      <c r="I62" s="70"/>
       <c r="J62" s="1"/>
     </row>
     <row r="63" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="89" t="s">
+      <c r="A63" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="B63" s="89"/>
-      <c r="C63" s="89" t="s">
+      <c r="B63" s="70"/>
+      <c r="C63" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="D63" s="89"/>
-      <c r="E63" s="102" t="s">
+      <c r="D63" s="70"/>
+      <c r="E63" s="59" t="s">
         <v>163</v>
       </c>
-      <c r="F63" s="89" t="s">
+      <c r="F63" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="G63" s="89"/>
-      <c r="H63" s="89" t="s">
+      <c r="G63" s="70"/>
+      <c r="H63" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="I63" s="89"/>
+      <c r="I63" s="70"/>
       <c r="J63" s="1"/>
     </row>
     <row r="64" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="89" t="s">
+      <c r="A64" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="B64" s="89"/>
-      <c r="C64" s="89" t="s">
+      <c r="B64" s="70"/>
+      <c r="C64" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="D64" s="89"/>
-      <c r="E64" s="102" t="s">
+      <c r="D64" s="70"/>
+      <c r="E64" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="F64" s="89" t="s">
+      <c r="F64" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="G64" s="89"/>
-      <c r="H64" s="95" t="s">
+      <c r="G64" s="70"/>
+      <c r="H64" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="I64" s="95"/>
+      <c r="I64" s="71"/>
       <c r="J64" s="1"/>
     </row>
     <row r="65" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="89" t="s">
+      <c r="A65" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="B65" s="89"/>
-      <c r="C65" s="89" t="s">
+      <c r="B65" s="70"/>
+      <c r="C65" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="D65" s="89"/>
-      <c r="E65" s="102" t="s">
+      <c r="D65" s="70"/>
+      <c r="E65" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="F65" s="94" t="s">
+      <c r="F65" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="G65" s="94"/>
-      <c r="H65" s="94" t="s">
+      <c r="G65" s="72"/>
+      <c r="H65" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="I65" s="94"/>
+      <c r="I65" s="72"/>
       <c r="J65" s="1"/>
     </row>
     <row r="66" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="89" t="s">
+      <c r="A66" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="B66" s="89"/>
-      <c r="C66" s="89" t="s">
+      <c r="B66" s="70"/>
+      <c r="C66" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="D66" s="89"/>
-      <c r="E66" s="102" t="s">
+      <c r="D66" s="70"/>
+      <c r="E66" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="F66" s="89" t="s">
+      <c r="F66" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="G66" s="89"/>
-      <c r="H66" s="95" t="s">
+      <c r="G66" s="70"/>
+      <c r="H66" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="I66" s="95"/>
+      <c r="I66" s="71"/>
       <c r="J66" s="1"/>
     </row>
     <row r="67" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.2">
@@ -3102,267 +3102,267 @@
       <c r="J69" s="1"/>
     </row>
     <row r="70" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="87" t="s">
+      <c r="A70" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="B70" s="88"/>
-      <c r="C70" s="87" t="s">
+      <c r="B70" s="74"/>
+      <c r="C70" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="D70" s="88"/>
+      <c r="D70" s="74"/>
       <c r="E70" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F70" s="85" t="s">
+      <c r="F70" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="G70" s="85"/>
-      <c r="H70" s="60" t="s">
+      <c r="G70" s="62"/>
+      <c r="H70" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="I70" s="60"/>
+      <c r="I70" s="75"/>
       <c r="J70" s="1"/>
     </row>
     <row r="71" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="89" t="s">
+      <c r="A71" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B71" s="89"/>
-      <c r="C71" s="89" t="s">
+      <c r="B71" s="70"/>
+      <c r="C71" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="D71" s="89"/>
-      <c r="E71" s="102" t="s">
+      <c r="D71" s="70"/>
+      <c r="E71" s="59" t="s">
         <v>167</v>
       </c>
-      <c r="F71" s="89" t="s">
+      <c r="F71" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="G71" s="89"/>
-      <c r="H71" s="95" t="s">
+      <c r="G71" s="70"/>
+      <c r="H71" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="I71" s="95"/>
+      <c r="I71" s="71"/>
       <c r="J71" s="1"/>
     </row>
     <row r="72" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="89" t="s">
+      <c r="A72" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="B72" s="89"/>
-      <c r="C72" s="94" t="s">
+      <c r="B72" s="70"/>
+      <c r="C72" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="D72" s="94"/>
-      <c r="E72" s="102" t="s">
+      <c r="D72" s="72"/>
+      <c r="E72" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="F72" s="89" t="s">
+      <c r="F72" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="G72" s="89"/>
-      <c r="H72" s="95" t="s">
+      <c r="G72" s="70"/>
+      <c r="H72" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="I72" s="95"/>
+      <c r="I72" s="71"/>
       <c r="J72" s="1"/>
     </row>
     <row r="73" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="89" t="s">
+      <c r="A73" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="B73" s="89"/>
-      <c r="C73" s="89" t="s">
+      <c r="B73" s="70"/>
+      <c r="C73" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="D73" s="89"/>
-      <c r="E73" s="102" t="s">
+      <c r="D73" s="70"/>
+      <c r="E73" s="59" t="s">
         <v>169</v>
       </c>
-      <c r="F73" s="89" t="s">
+      <c r="F73" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="G73" s="89"/>
-      <c r="H73" s="89" t="s">
+      <c r="G73" s="70"/>
+      <c r="H73" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="I73" s="89"/>
+      <c r="I73" s="70"/>
       <c r="J73" s="1"/>
     </row>
     <row r="74" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="89" t="s">
+      <c r="A74" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="B74" s="89"/>
-      <c r="C74" s="89" t="s">
+      <c r="B74" s="70"/>
+      <c r="C74" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="89"/>
-      <c r="E74" s="102" t="s">
+      <c r="D74" s="70"/>
+      <c r="E74" s="59" t="s">
         <v>170</v>
       </c>
-      <c r="F74" s="89" t="s">
+      <c r="F74" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="G74" s="89"/>
-      <c r="H74" s="89" t="s">
+      <c r="G74" s="70"/>
+      <c r="H74" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="I74" s="89"/>
+      <c r="I74" s="70"/>
       <c r="J74" s="1"/>
     </row>
     <row r="75" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="89" t="s">
+      <c r="A75" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="B75" s="89"/>
-      <c r="C75" s="94" t="s">
+      <c r="B75" s="70"/>
+      <c r="C75" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="94"/>
-      <c r="E75" s="102" t="s">
+      <c r="D75" s="72"/>
+      <c r="E75" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="F75" s="89" t="s">
+      <c r="F75" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="G75" s="89"/>
-      <c r="H75" s="89" t="s">
+      <c r="G75" s="70"/>
+      <c r="H75" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="I75" s="89"/>
+      <c r="I75" s="70"/>
       <c r="J75" s="1"/>
     </row>
     <row r="76" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="89" t="s">
+      <c r="A76" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="B76" s="89"/>
-      <c r="C76" s="89" t="s">
+      <c r="B76" s="70"/>
+      <c r="C76" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="89"/>
-      <c r="E76" s="102" t="s">
+      <c r="D76" s="70"/>
+      <c r="E76" s="59" t="s">
         <v>172</v>
       </c>
-      <c r="F76" s="89" t="s">
+      <c r="F76" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="G76" s="89"/>
-      <c r="H76" s="89" t="s">
+      <c r="G76" s="70"/>
+      <c r="H76" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="I76" s="89"/>
+      <c r="I76" s="70"/>
       <c r="J76" s="1"/>
     </row>
     <row r="77" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="89" t="s">
+      <c r="A77" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="B77" s="89"/>
-      <c r="C77" s="89" t="s">
+      <c r="B77" s="70"/>
+      <c r="C77" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="89"/>
-      <c r="E77" s="102" t="s">
+      <c r="D77" s="70"/>
+      <c r="E77" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="F77" s="89" t="s">
+      <c r="F77" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="G77" s="89"/>
-      <c r="H77" s="89" t="s">
+      <c r="G77" s="70"/>
+      <c r="H77" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="I77" s="89"/>
+      <c r="I77" s="70"/>
       <c r="J77" s="1"/>
     </row>
     <row r="78" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="89" t="s">
+      <c r="A78" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="B78" s="89"/>
-      <c r="C78" s="89" t="s">
+      <c r="B78" s="70"/>
+      <c r="C78" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="89"/>
-      <c r="E78" s="102" t="s">
+      <c r="D78" s="70"/>
+      <c r="E78" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="F78" s="89" t="s">
+      <c r="F78" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="G78" s="89"/>
-      <c r="H78" s="89" t="s">
+      <c r="G78" s="70"/>
+      <c r="H78" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="I78" s="89"/>
+      <c r="I78" s="70"/>
       <c r="J78" s="1"/>
     </row>
     <row r="79" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="89" t="s">
+      <c r="A79" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="B79" s="89"/>
-      <c r="C79" s="89" t="s">
+      <c r="B79" s="70"/>
+      <c r="C79" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="89"/>
-      <c r="E79" s="102" t="s">
+      <c r="D79" s="70"/>
+      <c r="E79" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="F79" s="89" t="s">
+      <c r="F79" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="G79" s="89"/>
-      <c r="H79" s="95" t="s">
+      <c r="G79" s="70"/>
+      <c r="H79" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="I79" s="95"/>
+      <c r="I79" s="71"/>
       <c r="J79" s="1"/>
     </row>
     <row r="80" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="89" t="s">
+      <c r="A80" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="B80" s="89"/>
-      <c r="C80" s="89" t="s">
+      <c r="B80" s="70"/>
+      <c r="C80" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="89"/>
-      <c r="E80" s="102" t="s">
+      <c r="D80" s="70"/>
+      <c r="E80" s="59" t="s">
         <v>176</v>
       </c>
-      <c r="F80" s="94" t="s">
+      <c r="F80" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="G80" s="94"/>
-      <c r="H80" s="94" t="s">
+      <c r="G80" s="72"/>
+      <c r="H80" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="I80" s="94"/>
+      <c r="I80" s="72"/>
       <c r="J80" s="1"/>
     </row>
     <row r="81" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="89" t="s">
+      <c r="A81" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="B81" s="89"/>
-      <c r="C81" s="89" t="s">
+      <c r="B81" s="70"/>
+      <c r="C81" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="D81" s="89"/>
-      <c r="E81" s="102" t="s">
+      <c r="D81" s="70"/>
+      <c r="E81" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="F81" s="89" t="s">
+      <c r="F81" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="G81" s="89"/>
-      <c r="H81" s="95" t="s">
+      <c r="G81" s="70"/>
+      <c r="H81" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="I81" s="95"/>
+      <c r="I81" s="71"/>
       <c r="J81" s="1"/>
     </row>
     <row r="82" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3404,267 +3404,267 @@
       <c r="J84" s="1"/>
     </row>
     <row r="85" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="87" t="s">
+      <c r="A85" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="B85" s="88"/>
-      <c r="C85" s="87" t="s">
+      <c r="B85" s="74"/>
+      <c r="C85" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="D85" s="88"/>
+      <c r="D85" s="74"/>
       <c r="E85" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F85" s="85" t="s">
+      <c r="F85" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="G85" s="85"/>
-      <c r="H85" s="60" t="s">
+      <c r="G85" s="62"/>
+      <c r="H85" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="I85" s="60"/>
+      <c r="I85" s="75"/>
       <c r="J85" s="1"/>
     </row>
     <row r="86" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="89" t="s">
+      <c r="A86" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B86" s="89"/>
-      <c r="C86" s="89" t="s">
+      <c r="B86" s="70"/>
+      <c r="C86" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="D86" s="89"/>
-      <c r="E86" s="102" t="s">
+      <c r="D86" s="70"/>
+      <c r="E86" s="59" t="s">
         <v>178</v>
       </c>
-      <c r="F86" s="89" t="s">
+      <c r="F86" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="G86" s="89"/>
-      <c r="H86" s="95" t="s">
+      <c r="G86" s="70"/>
+      <c r="H86" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="I86" s="95"/>
+      <c r="I86" s="71"/>
       <c r="J86" s="1"/>
     </row>
     <row r="87" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="89" t="s">
+      <c r="A87" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="B87" s="89"/>
-      <c r="C87" s="94" t="s">
+      <c r="B87" s="70"/>
+      <c r="C87" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="D87" s="94"/>
-      <c r="E87" s="102" t="s">
+      <c r="D87" s="72"/>
+      <c r="E87" s="59" t="s">
         <v>179</v>
       </c>
-      <c r="F87" s="89" t="s">
+      <c r="F87" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="G87" s="89"/>
-      <c r="H87" s="95" t="s">
+      <c r="G87" s="70"/>
+      <c r="H87" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="I87" s="95"/>
+      <c r="I87" s="71"/>
       <c r="J87" s="1"/>
     </row>
     <row r="88" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="89" t="s">
+      <c r="A88" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="B88" s="89"/>
-      <c r="C88" s="89" t="s">
+      <c r="B88" s="70"/>
+      <c r="C88" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="D88" s="89"/>
-      <c r="E88" s="102" t="s">
+      <c r="D88" s="70"/>
+      <c r="E88" s="59" t="s">
         <v>180</v>
       </c>
-      <c r="F88" s="89" t="s">
+      <c r="F88" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="G88" s="89"/>
-      <c r="H88" s="89" t="s">
+      <c r="G88" s="70"/>
+      <c r="H88" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="I88" s="89"/>
+      <c r="I88" s="70"/>
       <c r="J88" s="1"/>
     </row>
     <row r="89" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="89" t="s">
+      <c r="A89" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="B89" s="89"/>
-      <c r="C89" s="89" t="s">
+      <c r="B89" s="70"/>
+      <c r="C89" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="D89" s="89"/>
-      <c r="E89" s="102" t="s">
+      <c r="D89" s="70"/>
+      <c r="E89" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="F89" s="89" t="s">
+      <c r="F89" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="G89" s="89"/>
-      <c r="H89" s="89" t="s">
+      <c r="G89" s="70"/>
+      <c r="H89" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="I89" s="89"/>
+      <c r="I89" s="70"/>
       <c r="J89" s="1"/>
     </row>
     <row r="90" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="89" t="s">
+      <c r="A90" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="B90" s="89"/>
-      <c r="C90" s="94" t="s">
+      <c r="B90" s="70"/>
+      <c r="C90" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="D90" s="94"/>
-      <c r="E90" s="102" t="s">
+      <c r="D90" s="72"/>
+      <c r="E90" s="59" t="s">
         <v>182</v>
       </c>
-      <c r="F90" s="89" t="s">
+      <c r="F90" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="G90" s="89"/>
-      <c r="H90" s="89" t="s">
+      <c r="G90" s="70"/>
+      <c r="H90" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="I90" s="89"/>
+      <c r="I90" s="70"/>
       <c r="J90" s="1"/>
     </row>
     <row r="91" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="89" t="s">
+      <c r="A91" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="B91" s="89"/>
-      <c r="C91" s="89" t="s">
+      <c r="B91" s="70"/>
+      <c r="C91" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="D91" s="89"/>
-      <c r="E91" s="102" t="s">
+      <c r="D91" s="70"/>
+      <c r="E91" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="F91" s="89" t="s">
+      <c r="F91" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="G91" s="89"/>
-      <c r="H91" s="89" t="s">
+      <c r="G91" s="70"/>
+      <c r="H91" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="I91" s="89"/>
+      <c r="I91" s="70"/>
       <c r="J91" s="1"/>
     </row>
     <row r="92" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="89" t="s">
+      <c r="A92" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="B92" s="89"/>
-      <c r="C92" s="89" t="s">
+      <c r="B92" s="70"/>
+      <c r="C92" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="D92" s="89"/>
-      <c r="E92" s="102" t="s">
+      <c r="D92" s="70"/>
+      <c r="E92" s="59" t="s">
         <v>184</v>
       </c>
-      <c r="F92" s="89" t="s">
+      <c r="F92" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="G92" s="89"/>
-      <c r="H92" s="89" t="s">
+      <c r="G92" s="70"/>
+      <c r="H92" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="I92" s="89"/>
+      <c r="I92" s="70"/>
       <c r="J92" s="1"/>
     </row>
     <row r="93" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="89" t="s">
+      <c r="A93" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="B93" s="89"/>
-      <c r="C93" s="89" t="s">
+      <c r="B93" s="70"/>
+      <c r="C93" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="D93" s="89"/>
-      <c r="E93" s="102" t="s">
+      <c r="D93" s="70"/>
+      <c r="E93" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="F93" s="89" t="s">
+      <c r="F93" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="G93" s="89"/>
-      <c r="H93" s="89" t="s">
+      <c r="G93" s="70"/>
+      <c r="H93" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="I93" s="89"/>
+      <c r="I93" s="70"/>
       <c r="J93" s="1"/>
     </row>
     <row r="94" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="89" t="s">
+      <c r="A94" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="B94" s="89"/>
-      <c r="C94" s="89" t="s">
+      <c r="B94" s="70"/>
+      <c r="C94" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="D94" s="89"/>
-      <c r="E94" s="102" t="s">
+      <c r="D94" s="70"/>
+      <c r="E94" s="59" t="s">
         <v>186</v>
       </c>
-      <c r="F94" s="89" t="s">
+      <c r="F94" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="G94" s="89"/>
-      <c r="H94" s="95" t="s">
+      <c r="G94" s="70"/>
+      <c r="H94" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="I94" s="95"/>
+      <c r="I94" s="71"/>
       <c r="J94" s="1"/>
     </row>
     <row r="95" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="89" t="s">
+      <c r="A95" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="B95" s="89"/>
-      <c r="C95" s="89" t="s">
+      <c r="B95" s="70"/>
+      <c r="C95" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="D95" s="89"/>
-      <c r="E95" s="102" t="s">
+      <c r="D95" s="70"/>
+      <c r="E95" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="F95" s="94" t="s">
+      <c r="F95" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="G95" s="94"/>
-      <c r="H95" s="94" t="s">
+      <c r="G95" s="72"/>
+      <c r="H95" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="I95" s="94"/>
+      <c r="I95" s="72"/>
       <c r="J95" s="1"/>
     </row>
     <row r="96" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="89" t="s">
+      <c r="A96" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="B96" s="89"/>
-      <c r="C96" s="89" t="s">
+      <c r="B96" s="70"/>
+      <c r="C96" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="D96" s="89"/>
-      <c r="E96" s="102" t="s">
+      <c r="D96" s="70"/>
+      <c r="E96" s="59" t="s">
         <v>188</v>
       </c>
-      <c r="F96" s="89" t="s">
+      <c r="F96" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="G96" s="89"/>
-      <c r="H96" s="95" t="s">
+      <c r="G96" s="70"/>
+      <c r="H96" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="I96" s="95"/>
+      <c r="I96" s="71"/>
       <c r="J96" s="1"/>
     </row>
     <row r="97" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3680,17 +3680,17 @@
       <c r="J97" s="1"/>
     </row>
     <row r="98" spans="1:12" s="16" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="98" t="s">
+      <c r="A98" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="B98" s="98"/>
-      <c r="C98" s="98"/>
-      <c r="D98" s="98"/>
-      <c r="E98" s="98"/>
-      <c r="F98" s="98"/>
-      <c r="G98" s="98"/>
-      <c r="H98" s="98"/>
-      <c r="I98" s="98"/>
+      <c r="B98" s="61"/>
+      <c r="C98" s="61"/>
+      <c r="D98" s="61"/>
+      <c r="E98" s="61"/>
+      <c r="F98" s="61"/>
+      <c r="G98" s="61"/>
+      <c r="H98" s="61"/>
+      <c r="I98" s="61"/>
       <c r="J98" s="1"/>
     </row>
     <row r="99" spans="1:12" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3706,14 +3706,14 @@
       <c r="J99" s="1"/>
     </row>
     <row r="100" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="60" t="s">
+      <c r="A100" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="B100" s="60"/>
-      <c r="C100" s="60" t="s">
+      <c r="B100" s="75"/>
+      <c r="C100" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="D100" s="60"/>
+      <c r="D100" s="75"/>
       <c r="E100" s="12"/>
       <c r="F100" s="12"/>
       <c r="G100" s="12"/>
@@ -3722,14 +3722,14 @@
       <c r="J100" s="1"/>
     </row>
     <row r="101" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="61" t="s">
+      <c r="A101" s="98" t="s">
         <v>116</v>
       </c>
-      <c r="B101" s="61"/>
-      <c r="C101" s="60" t="s">
+      <c r="B101" s="98"/>
+      <c r="C101" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="D101" s="60"/>
+      <c r="D101" s="75"/>
       <c r="E101" s="12"/>
       <c r="F101" s="12"/>
       <c r="G101" s="12"/>
@@ -3750,17 +3750,17 @@
       <c r="J102" s="1"/>
     </row>
     <row r="103" spans="1:12" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="98" t="s">
+      <c r="A103" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="B103" s="98"/>
-      <c r="C103" s="98"/>
-      <c r="D103" s="98"/>
-      <c r="E103" s="98"/>
-      <c r="F103" s="98"/>
-      <c r="G103" s="98"/>
-      <c r="H103" s="98"/>
-      <c r="I103" s="98"/>
+      <c r="B103" s="61"/>
+      <c r="C103" s="61"/>
+      <c r="D103" s="61"/>
+      <c r="E103" s="61"/>
+      <c r="F103" s="61"/>
+      <c r="G103" s="61"/>
+      <c r="H103" s="61"/>
+      <c r="I103" s="61"/>
       <c r="J103" s="1"/>
     </row>
     <row r="104" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3779,18 +3779,18 @@
       <c r="A105" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B105" s="87" t="s">
+      <c r="B105" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="C105" s="88"/>
-      <c r="D105" s="87" t="s">
+      <c r="C105" s="74"/>
+      <c r="D105" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="E105" s="88"/>
-      <c r="F105" s="87" t="s">
+      <c r="E105" s="74"/>
+      <c r="F105" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="G105" s="88"/>
+      <c r="G105" s="74"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
@@ -3800,18 +3800,18 @@
       <c r="A106" s="28">
         <v>1</v>
       </c>
-      <c r="B106" s="103" t="s">
+      <c r="B106" s="77" t="s">
         <v>189</v>
       </c>
-      <c r="C106" s="104"/>
-      <c r="D106" s="105" t="s">
+      <c r="C106" s="78"/>
+      <c r="D106" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="E106" s="105"/>
-      <c r="F106" s="85" t="s">
+      <c r="E106" s="79"/>
+      <c r="F106" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="G106" s="85"/>
+      <c r="G106" s="62"/>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
@@ -3821,16 +3821,16 @@
       <c r="A107" s="28">
         <v>2</v>
       </c>
-      <c r="B107" s="103" t="s">
+      <c r="B107" s="77" t="s">
         <v>191</v>
       </c>
-      <c r="C107" s="104"/>
-      <c r="D107" s="105" t="s">
+      <c r="C107" s="78"/>
+      <c r="D107" s="79" t="s">
         <v>192</v>
       </c>
-      <c r="E107" s="105"/>
-      <c r="F107" s="85"/>
-      <c r="G107" s="85"/>
+      <c r="E107" s="79"/>
+      <c r="F107" s="62"/>
+      <c r="G107" s="62"/>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
@@ -3840,16 +3840,16 @@
       <c r="A108" s="28">
         <v>3</v>
       </c>
-      <c r="B108" s="103" t="s">
+      <c r="B108" s="77" t="s">
         <v>193</v>
       </c>
-      <c r="C108" s="104"/>
-      <c r="D108" s="105" t="s">
+      <c r="C108" s="78"/>
+      <c r="D108" s="79" t="s">
         <v>194</v>
       </c>
-      <c r="E108" s="105"/>
-      <c r="F108" s="85"/>
-      <c r="G108" s="85"/>
+      <c r="E108" s="79"/>
+      <c r="F108" s="62"/>
+      <c r="G108" s="62"/>
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
@@ -3859,16 +3859,16 @@
       <c r="A109" s="28">
         <v>4</v>
       </c>
-      <c r="B109" s="103" t="s">
+      <c r="B109" s="77" t="s">
         <v>195</v>
       </c>
-      <c r="C109" s="104"/>
-      <c r="D109" s="105" t="s">
+      <c r="C109" s="78"/>
+      <c r="D109" s="79" t="s">
         <v>196</v>
       </c>
-      <c r="E109" s="105"/>
-      <c r="F109" s="85"/>
-      <c r="G109" s="85"/>
+      <c r="E109" s="79"/>
+      <c r="F109" s="62"/>
+      <c r="G109" s="62"/>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
@@ -3916,88 +3916,88 @@
       <c r="A113" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B113" s="85" t="s">
+      <c r="B113" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="C113" s="85"/>
-      <c r="D113" s="85" t="s">
+      <c r="C113" s="62"/>
+      <c r="D113" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="E113" s="85"/>
-      <c r="F113" s="85" t="s">
+      <c r="E113" s="62"/>
+      <c r="F113" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="G113" s="85"/>
-      <c r="H113" s="91"/>
-      <c r="I113" s="91"/>
+      <c r="G113" s="62"/>
+      <c r="H113" s="63"/>
+      <c r="I113" s="63"/>
       <c r="J113" s="1"/>
     </row>
     <row r="114" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="27">
         <v>1</v>
       </c>
-      <c r="B114" s="85" t="s">
+      <c r="B114" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="C114" s="85"/>
-      <c r="D114" s="85" t="s">
+      <c r="C114" s="62"/>
+      <c r="D114" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="E114" s="85"/>
-      <c r="F114" s="93">
+      <c r="E114" s="62"/>
+      <c r="F114" s="69">
         <v>4.5</v>
       </c>
-      <c r="G114" s="93"/>
-      <c r="H114" s="91"/>
-      <c r="I114" s="91"/>
+      <c r="G114" s="69"/>
+      <c r="H114" s="63"/>
+      <c r="I114" s="63"/>
       <c r="J114" s="1"/>
     </row>
     <row r="115" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="27">
         <v>2</v>
       </c>
-      <c r="B115" s="85"/>
-      <c r="C115" s="85"/>
-      <c r="D115" s="85"/>
-      <c r="E115" s="85"/>
-      <c r="F115" s="93">
+      <c r="B115" s="62"/>
+      <c r="C115" s="62"/>
+      <c r="D115" s="62"/>
+      <c r="E115" s="62"/>
+      <c r="F115" s="69">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G115" s="93"/>
-      <c r="H115" s="91"/>
-      <c r="I115" s="91"/>
+      <c r="G115" s="69"/>
+      <c r="H115" s="63"/>
+      <c r="I115" s="63"/>
       <c r="J115" s="1"/>
     </row>
     <row r="116" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="27">
         <v>3</v>
       </c>
-      <c r="B116" s="85"/>
-      <c r="C116" s="85"/>
-      <c r="D116" s="85"/>
-      <c r="E116" s="85"/>
-      <c r="F116" s="93">
+      <c r="B116" s="62"/>
+      <c r="C116" s="62"/>
+      <c r="D116" s="62"/>
+      <c r="E116" s="62"/>
+      <c r="F116" s="69">
         <v>4.5</v>
       </c>
-      <c r="G116" s="93"/>
-      <c r="H116" s="91"/>
-      <c r="I116" s="91"/>
+      <c r="G116" s="69"/>
+      <c r="H116" s="63"/>
+      <c r="I116" s="63"/>
       <c r="J116" s="1"/>
     </row>
     <row r="117" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="27">
         <v>4</v>
       </c>
-      <c r="B117" s="85"/>
-      <c r="C117" s="85"/>
-      <c r="D117" s="85"/>
-      <c r="E117" s="85"/>
-      <c r="F117" s="92">
+      <c r="B117" s="62"/>
+      <c r="C117" s="62"/>
+      <c r="D117" s="62"/>
+      <c r="E117" s="62"/>
+      <c r="F117" s="80">
         <v>6</v>
       </c>
-      <c r="G117" s="92"/>
-      <c r="H117" s="91"/>
-      <c r="I117" s="91"/>
+      <c r="G117" s="80"/>
+      <c r="H117" s="63"/>
+      <c r="I117" s="63"/>
       <c r="J117" s="1"/>
     </row>
     <row r="118" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4013,18 +4013,18 @@
       <c r="J118" s="1"/>
     </row>
     <row r="119" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="90" t="s">
+      <c r="A119" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="B119" s="90"/>
-      <c r="C119" s="90"/>
-      <c r="D119" s="90"/>
-      <c r="E119" s="90"/>
-      <c r="F119" s="90"/>
-      <c r="G119" s="90"/>
-      <c r="H119" s="90"/>
-      <c r="I119" s="90"/>
-      <c r="J119" s="90"/>
+      <c r="B119" s="68"/>
+      <c r="C119" s="68"/>
+      <c r="D119" s="68"/>
+      <c r="E119" s="68"/>
+      <c r="F119" s="68"/>
+      <c r="G119" s="68"/>
+      <c r="H119" s="68"/>
+      <c r="I119" s="68"/>
+      <c r="J119" s="68"/>
     </row>
     <row r="120" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="24"/>
@@ -4039,18 +4039,18 @@
       <c r="J120" s="1"/>
     </row>
     <row r="121" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="90" t="s">
+      <c r="A121" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="B121" s="90"/>
-      <c r="C121" s="90"/>
-      <c r="D121" s="90"/>
-      <c r="E121" s="90"/>
-      <c r="F121" s="90"/>
-      <c r="G121" s="90"/>
-      <c r="H121" s="90"/>
-      <c r="I121" s="90"/>
-      <c r="J121" s="90"/>
+      <c r="B121" s="68"/>
+      <c r="C121" s="68"/>
+      <c r="D121" s="68"/>
+      <c r="E121" s="68"/>
+      <c r="F121" s="68"/>
+      <c r="G121" s="68"/>
+      <c r="H121" s="68"/>
+      <c r="I121" s="68"/>
+      <c r="J121" s="68"/>
     </row>
     <row r="122" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="24"/>
@@ -4065,10 +4065,10 @@
       <c r="J122" s="1"/>
     </row>
     <row r="123" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="90" t="s">
+      <c r="A123" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="B123" s="90"/>
+      <c r="B123" s="68"/>
       <c r="C123" s="25"/>
       <c r="D123" s="25"/>
       <c r="E123" s="25"/>
@@ -4091,82 +4091,82 @@
       <c r="J124" s="1"/>
     </row>
     <row r="125" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="84" t="s">
+      <c r="A125" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="B125" s="84"/>
-      <c r="C125" s="85" t="s">
+      <c r="B125" s="66"/>
+      <c r="C125" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="D125" s="85"/>
-      <c r="E125" s="85" t="s">
+      <c r="D125" s="62"/>
+      <c r="E125" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="F125" s="85"/>
-      <c r="G125" s="85" t="s">
+      <c r="F125" s="62"/>
+      <c r="G125" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="H125" s="85"/>
+      <c r="H125" s="62"/>
       <c r="I125" s="20"/>
       <c r="J125" s="1"/>
     </row>
     <row r="126" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="84" t="s">
+      <c r="A126" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="B126" s="84"/>
-      <c r="C126" s="84" t="s">
+      <c r="B126" s="66"/>
+      <c r="C126" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="D126" s="84"/>
-      <c r="E126" s="85" t="s">
+      <c r="D126" s="66"/>
+      <c r="E126" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="F126" s="85"/>
-      <c r="G126" s="86" t="s">
+      <c r="F126" s="62"/>
+      <c r="G126" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="H126" s="86"/>
+      <c r="H126" s="67"/>
       <c r="I126" s="20"/>
       <c r="J126" s="1"/>
     </row>
     <row r="127" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="84" t="s">
+      <c r="A127" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="B127" s="84"/>
-      <c r="C127" s="84" t="s">
+      <c r="B127" s="66"/>
+      <c r="C127" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="D127" s="84"/>
-      <c r="E127" s="85" t="s">
+      <c r="D127" s="66"/>
+      <c r="E127" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="F127" s="85"/>
-      <c r="G127" s="86" t="s">
+      <c r="F127" s="62"/>
+      <c r="G127" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="H127" s="86"/>
+      <c r="H127" s="67"/>
       <c r="I127" s="20"/>
       <c r="J127" s="1"/>
     </row>
     <row r="128" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="84" t="s">
+      <c r="A128" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="B128" s="84"/>
-      <c r="C128" s="84" t="s">
+      <c r="B128" s="66"/>
+      <c r="C128" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="D128" s="84"/>
-      <c r="E128" s="85" t="s">
+      <c r="D128" s="66"/>
+      <c r="E128" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="F128" s="85"/>
-      <c r="G128" s="86" t="s">
+      <c r="F128" s="62"/>
+      <c r="G128" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="H128" s="86"/>
+      <c r="H128" s="67"/>
       <c r="I128" s="20"/>
       <c r="J128" s="1"/>
     </row>
@@ -4183,10 +4183,10 @@
       <c r="J129" s="1"/>
     </row>
     <row r="130" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="90" t="s">
+      <c r="A130" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="B130" s="90"/>
+      <c r="B130" s="68"/>
       <c r="C130" s="25"/>
       <c r="D130" s="25"/>
       <c r="E130" s="25"/>
@@ -4209,120 +4209,120 @@
       <c r="J131" s="1"/>
     </row>
     <row r="132" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="84" t="s">
+      <c r="A132" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="B132" s="84"/>
-      <c r="C132" s="85" t="s">
+      <c r="B132" s="66"/>
+      <c r="C132" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="D132" s="85"/>
-      <c r="E132" s="85" t="s">
+      <c r="D132" s="62"/>
+      <c r="E132" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="F132" s="85"/>
-      <c r="G132" s="85" t="s">
+      <c r="F132" s="62"/>
+      <c r="G132" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="H132" s="85"/>
+      <c r="H132" s="62"/>
       <c r="I132" s="23"/>
       <c r="J132" s="1"/>
     </row>
     <row r="133" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="84" t="s">
+      <c r="A133" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="B133" s="84"/>
-      <c r="C133" s="84" t="s">
+      <c r="B133" s="66"/>
+      <c r="C133" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="D133" s="84"/>
-      <c r="E133" s="85" t="s">
+      <c r="D133" s="66"/>
+      <c r="E133" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="F133" s="85"/>
-      <c r="G133" s="86" t="s">
+      <c r="F133" s="62"/>
+      <c r="G133" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="H133" s="86"/>
+      <c r="H133" s="67"/>
       <c r="I133" s="23"/>
       <c r="J133" s="1"/>
     </row>
     <row r="134" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="84" t="s">
+      <c r="A134" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="B134" s="84"/>
-      <c r="C134" s="84" t="s">
+      <c r="B134" s="66"/>
+      <c r="C134" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="D134" s="84"/>
-      <c r="E134" s="85" t="s">
+      <c r="D134" s="66"/>
+      <c r="E134" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="F134" s="85"/>
-      <c r="G134" s="86" t="s">
+      <c r="F134" s="62"/>
+      <c r="G134" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="H134" s="86"/>
+      <c r="H134" s="67"/>
       <c r="I134" s="23"/>
       <c r="J134" s="1"/>
     </row>
     <row r="135" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="84" t="s">
+      <c r="A135" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="B135" s="84"/>
-      <c r="C135" s="84" t="s">
+      <c r="B135" s="66"/>
+      <c r="C135" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="D135" s="84"/>
-      <c r="E135" s="85" t="s">
+      <c r="D135" s="66"/>
+      <c r="E135" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="F135" s="85"/>
-      <c r="G135" s="86" t="s">
+      <c r="F135" s="62"/>
+      <c r="G135" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="H135" s="86"/>
+      <c r="H135" s="67"/>
       <c r="I135" s="23"/>
       <c r="J135" s="1"/>
     </row>
     <row r="136" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="99"/>
-      <c r="B136" s="99"/>
-      <c r="C136" s="100"/>
-      <c r="D136" s="100"/>
-      <c r="E136" s="100"/>
-      <c r="F136" s="100"/>
-      <c r="G136" s="91"/>
-      <c r="H136" s="91"/>
+      <c r="A136" s="64"/>
+      <c r="B136" s="64"/>
+      <c r="C136" s="65"/>
+      <c r="D136" s="65"/>
+      <c r="E136" s="65"/>
+      <c r="F136" s="65"/>
+      <c r="G136" s="63"/>
+      <c r="H136" s="63"/>
       <c r="I136" s="20"/>
       <c r="J136" s="1"/>
     </row>
     <row r="137" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="90" t="s">
+      <c r="A137" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="B137" s="90"/>
-      <c r="C137" s="90"/>
-      <c r="D137" s="90"/>
-      <c r="E137" s="90"/>
-      <c r="F137" s="90"/>
-      <c r="G137" s="90"/>
-      <c r="H137" s="90"/>
-      <c r="I137" s="90"/>
-      <c r="J137" s="90"/>
+      <c r="B137" s="68"/>
+      <c r="C137" s="68"/>
+      <c r="D137" s="68"/>
+      <c r="E137" s="68"/>
+      <c r="F137" s="68"/>
+      <c r="G137" s="68"/>
+      <c r="H137" s="68"/>
+      <c r="I137" s="68"/>
+      <c r="J137" s="68"/>
     </row>
     <row r="138" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="99"/>
-      <c r="B138" s="99"/>
-      <c r="C138" s="100"/>
-      <c r="D138" s="100"/>
-      <c r="E138" s="100"/>
-      <c r="F138" s="100"/>
-      <c r="G138" s="91"/>
-      <c r="H138" s="91"/>
+      <c r="A138" s="64"/>
+      <c r="B138" s="64"/>
+      <c r="C138" s="65"/>
+      <c r="D138" s="65"/>
+      <c r="E138" s="65"/>
+      <c r="F138" s="65"/>
+      <c r="G138" s="63"/>
+      <c r="H138" s="63"/>
       <c r="I138" s="20"/>
       <c r="J138" s="1"/>
     </row>
@@ -4353,27 +4353,27 @@
       <c r="J140" s="1"/>
     </row>
     <row r="141" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="58" t="s">
+      <c r="A141" s="96" t="s">
         <v>139</v>
       </c>
-      <c r="B141" s="58"/>
+      <c r="B141" s="96"/>
       <c r="C141" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="D141" s="59" t="s">
+      <c r="D141" s="97" t="s">
         <v>141</v>
       </c>
-      <c r="E141" s="59"/>
+      <c r="E141" s="97"/>
       <c r="F141" s="56" t="s">
         <v>142</v>
       </c>
       <c r="G141" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="H141" s="59" t="s">
+      <c r="H141" s="97" t="s">
         <v>144</v>
       </c>
-      <c r="I141" s="59"/>
+      <c r="I141" s="97"/>
       <c r="J141" s="1"/>
     </row>
     <row r="142" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4385,6 +4385,293 @@
     <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="311">
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="H141:I141"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="D114:E117"/>
+    <mergeCell ref="B114:C117"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="F114:G114"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A119:J119"/>
+    <mergeCell ref="A121:J121"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="F106:G109"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="F113:G113"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="H95:I95"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A103:I103"/>
     <mergeCell ref="B113:C113"/>
@@ -4409,293 +4696,6 @@
     <mergeCell ref="G126:H126"/>
     <mergeCell ref="F115:G115"/>
     <mergeCell ref="H115:I115"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="F106:G109"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="F113:G113"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="D114:E117"/>
-    <mergeCell ref="B114:C117"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="F114:G114"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A119:J119"/>
-    <mergeCell ref="A121:J121"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="E135:F135"/>
-    <mergeCell ref="G135:H135"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="G134:H134"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="E127:F127"/>
-    <mergeCell ref="G127:H127"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="D141:E141"/>
-    <mergeCell ref="H141:I141"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="G17:H17"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.35433070866141736" top="0.78740157480314965" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.39370078740157483"/>

--- a/Shablon/MSO-X3054A.xlsx
+++ b/Shablon/MSO-X3054A.xlsx
@@ -16,12 +16,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="196">
   <si>
     <t>Параметр</t>
   </si>
@@ -867,23 +867,6 @@
   </si>
   <si>
     <t>_customer</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Протокол № </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>10/21-11-2022/</t>
-    </r>
   </si>
   <si>
     <t>_temp</t>
@@ -1330,7 +1313,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1478,145 +1461,144 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1955,8 +1937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L148"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A91" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C132" sqref="C132:D132"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1969,18 +1951,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
     </row>
     <row r="2" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32"/>
@@ -1993,21 +1975,20 @@
       <c r="H2" s="32"/>
       <c r="I2" s="31"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
-        <v>135</v>
-      </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="58" t="s">
-        <v>133</v>
-      </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="104" t="str">
+        <f>"Протокол поверки № 10/"&amp;H141&amp;"/"&amp;C6</f>
+        <v>Протокол поверки № 10/_date/_numb</v>
+      </c>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
     </row>
     <row r="4" spans="1:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34"/>
@@ -2021,10 +2002,10 @@
       <c r="I4" s="31"/>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="81"/>
+      <c r="B5" s="83"/>
       <c r="C5" s="50" t="s">
         <v>131</v>
       </c>
@@ -2038,10 +2019,10 @@
       <c r="I5" s="35"/>
     </row>
     <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="81"/>
+      <c r="B6" s="83"/>
       <c r="C6" s="54" t="s">
         <v>133</v>
       </c>
@@ -2053,18 +2034,18 @@
       <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="100">
+      <c r="B7" s="83"/>
+      <c r="C7" s="64">
         <v>2015</v>
       </c>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
       <c r="I7" s="35"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.2">
@@ -2072,21 +2053,21 @@
         <v>90</v>
       </c>
       <c r="B8" s="38"/>
-      <c r="C8" s="101" t="s">
+      <c r="C8" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
       <c r="I8" s="35"/>
     </row>
     <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="B9" s="81"/>
+      <c r="B9" s="83"/>
       <c r="C9" s="54" t="s">
         <v>134</v>
       </c>
@@ -2098,33 +2079,33 @@
       <c r="I9" s="35"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="82" t="s">
+      <c r="A10" s="84" t="s">
         <v>92</v>
       </c>
-      <c r="B10" s="82"/>
-      <c r="C10" s="101" t="s">
+      <c r="B10" s="84"/>
+      <c r="C10" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
       <c r="I10" s="39"/>
     </row>
     <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="82" t="s">
+      <c r="A11" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="82"/>
-      <c r="C11" s="102" t="s">
+      <c r="B11" s="84"/>
+      <c r="C11" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
       <c r="I11" s="40"/>
     </row>
     <row r="12" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2163,96 +2144,96 @@
       <c r="I14" s="31"/>
     </row>
     <row r="15" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="83" t="s">
+      <c r="A15" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="83"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="85" t="s">
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="85"/>
-      <c r="G15" s="83" t="s">
+      <c r="F15" s="67"/>
+      <c r="G15" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="H15" s="84"/>
+      <c r="H15" s="75"/>
     </row>
     <row r="16" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="104" t="s">
+      <c r="A16" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="104"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="103" t="s">
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="F16" s="68"/>
+      <c r="G16" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" s="75"/>
+    </row>
+    <row r="17" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="F16" s="103"/>
-      <c r="G16" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="H16" s="84"/>
-    </row>
-    <row r="17" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="104" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" s="104"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="103" t="s">
+      <c r="F17" s="68"/>
+      <c r="G17" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17" s="75"/>
+    </row>
+    <row r="18" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="F17" s="103"/>
-      <c r="G17" s="83" t="s">
-        <v>105</v>
-      </c>
-      <c r="H17" s="84"/>
-    </row>
-    <row r="18" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="104" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="104"/>
-      <c r="C18" s="104"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="103" t="s">
-        <v>138</v>
-      </c>
-      <c r="F18" s="103"/>
-      <c r="G18" s="83" t="s">
+      <c r="F18" s="68"/>
+      <c r="G18" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="H18" s="84"/>
+      <c r="H18" s="75"/>
     </row>
     <row r="19" spans="1:10" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="91" t="s">
+      <c r="A19" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="92"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="90" t="s">
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="H19" s="90"/>
+      <c r="H19" s="80"/>
     </row>
     <row r="20" spans="1:10" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="91" t="s">
+      <c r="A20" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="92"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="90" t="s">
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="90"/>
+      <c r="H20" s="80"/>
     </row>
     <row r="21" spans="1:10" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="41"/>
@@ -2290,53 +2271,53 @@
       <c r="I23" s="32"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="85" t="s">
+      <c r="A24" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="85"/>
-      <c r="C24" s="85" t="s">
+      <c r="B24" s="67"/>
+      <c r="C24" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="85"/>
+      <c r="D24" s="67"/>
       <c r="E24" s="47"/>
       <c r="F24" s="47"/>
       <c r="G24" s="32"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="94" t="s">
+      <c r="A25" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="B25" s="95"/>
-      <c r="C25" s="94">
+      <c r="B25" s="82"/>
+      <c r="C25" s="81">
         <v>276568182</v>
       </c>
-      <c r="D25" s="95"/>
+      <c r="D25" s="82"/>
       <c r="E25" s="47"/>
       <c r="F25" s="47"/>
       <c r="G25" s="32"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="86" t="s">
+      <c r="A26" s="76" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="86"/>
-      <c r="C26" s="87">
+      <c r="B26" s="76"/>
+      <c r="C26" s="77">
         <v>1601</v>
       </c>
-      <c r="D26" s="88"/>
+      <c r="D26" s="78"/>
       <c r="E26" s="48"/>
       <c r="F26" s="48"/>
       <c r="G26" s="48"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="105" t="s">
+      <c r="A27" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="B27" s="105"/>
-      <c r="C27" s="105">
+      <c r="B27" s="74"/>
+      <c r="C27" s="74">
         <v>418840</v>
       </c>
-      <c r="D27" s="105"/>
+      <c r="D27" s="74"/>
       <c r="E27" s="49"/>
       <c r="F27" s="49"/>
       <c r="G27" s="32"/>
@@ -2406,17 +2387,17 @@
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="76" t="s">
+      <c r="A33" s="100" t="s">
         <v>111</v>
       </c>
-      <c r="B33" s="76"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="76"/>
+      <c r="B33" s="100"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="100"/>
+      <c r="I33" s="100"/>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" s="16" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2498,267 +2479,267 @@
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="73" t="s">
+      <c r="A40" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="74"/>
-      <c r="C40" s="73" t="s">
+      <c r="B40" s="89"/>
+      <c r="C40" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="D40" s="74"/>
+      <c r="D40" s="89"/>
       <c r="E40" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F40" s="62" t="s">
+      <c r="F40" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="G40" s="62"/>
-      <c r="H40" s="75" t="s">
+      <c r="G40" s="86"/>
+      <c r="H40" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="I40" s="75"/>
+      <c r="I40" s="61"/>
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="70" t="s">
+      <c r="A41" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="70"/>
-      <c r="C41" s="70" t="s">
+      <c r="B41" s="92"/>
+      <c r="C41" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="70"/>
-      <c r="E41" s="59" t="s">
+      <c r="D41" s="92"/>
+      <c r="E41" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="F41" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" s="92"/>
+      <c r="H41" s="99" t="s">
+        <v>45</v>
+      </c>
+      <c r="I41" s="99"/>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="92"/>
+      <c r="C42" s="97" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="97"/>
+      <c r="E42" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="F41" s="70" t="s">
-        <v>34</v>
-      </c>
-      <c r="G41" s="70"/>
-      <c r="H41" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="I41" s="71"/>
-      <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" s="70"/>
-      <c r="C42" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42" s="72"/>
-      <c r="E42" s="59" t="s">
+      <c r="F42" s="92" t="s">
+        <v>35</v>
+      </c>
+      <c r="G42" s="92"/>
+      <c r="H42" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" s="99"/>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="92" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="92"/>
+      <c r="C43" s="92" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="92"/>
+      <c r="E43" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="F42" s="70" t="s">
-        <v>35</v>
-      </c>
-      <c r="G42" s="70"/>
-      <c r="H42" s="71" t="s">
-        <v>46</v>
-      </c>
-      <c r="I42" s="71"/>
-      <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="70" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43" s="70"/>
-      <c r="C43" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="D43" s="70"/>
-      <c r="E43" s="59" t="s">
+      <c r="F43" s="92" t="s">
+        <v>36</v>
+      </c>
+      <c r="G43" s="92"/>
+      <c r="H43" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" s="92"/>
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="92" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="92"/>
+      <c r="C44" s="92" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="92"/>
+      <c r="E44" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="F43" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="G43" s="70"/>
-      <c r="H43" s="70" t="s">
-        <v>47</v>
-      </c>
-      <c r="I43" s="70"/>
-      <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="70" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" s="70"/>
-      <c r="C44" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="D44" s="70"/>
-      <c r="E44" s="59" t="s">
+      <c r="F44" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="G44" s="92"/>
+      <c r="H44" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="I44" s="92"/>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="92" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="92"/>
+      <c r="C45" s="97" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="97"/>
+      <c r="E45" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="F44" s="70" t="s">
-        <v>37</v>
-      </c>
-      <c r="G44" s="70"/>
-      <c r="H44" s="70" t="s">
-        <v>48</v>
-      </c>
-      <c r="I44" s="70"/>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="70" t="s">
-        <v>16</v>
-      </c>
-      <c r="B45" s="70"/>
-      <c r="C45" s="72" t="s">
-        <v>27</v>
-      </c>
-      <c r="D45" s="72"/>
-      <c r="E45" s="59" t="s">
+      <c r="F45" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" s="92"/>
+      <c r="H45" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="I45" s="92"/>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="92" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" s="92"/>
+      <c r="C46" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="92"/>
+      <c r="E46" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="F45" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="G45" s="70"/>
-      <c r="H45" s="70" t="s">
-        <v>49</v>
-      </c>
-      <c r="I45" s="70"/>
-      <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="B46" s="70"/>
-      <c r="C46" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="D46" s="70"/>
-      <c r="E46" s="59" t="s">
+      <c r="F46" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="G46" s="92"/>
+      <c r="H46" s="92" t="s">
+        <v>50</v>
+      </c>
+      <c r="I46" s="92"/>
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="92"/>
+      <c r="C47" s="92" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="92"/>
+      <c r="E47" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="F46" s="70" t="s">
-        <v>39</v>
-      </c>
-      <c r="G46" s="70"/>
-      <c r="H46" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="I46" s="70"/>
-      <c r="J46" s="1"/>
-    </row>
-    <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="70" t="s">
-        <v>18</v>
-      </c>
-      <c r="B47" s="70"/>
-      <c r="C47" s="70" t="s">
-        <v>29</v>
-      </c>
-      <c r="D47" s="70"/>
-      <c r="E47" s="59" t="s">
+      <c r="F47" s="92" t="s">
+        <v>40</v>
+      </c>
+      <c r="G47" s="92"/>
+      <c r="H47" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="I47" s="92"/>
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="92" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" s="92"/>
+      <c r="C48" s="92" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="92"/>
+      <c r="E48" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="F47" s="70" t="s">
-        <v>40</v>
-      </c>
-      <c r="G47" s="70"/>
-      <c r="H47" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="I47" s="70"/>
-      <c r="J47" s="1"/>
-    </row>
-    <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="B48" s="70"/>
-      <c r="C48" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="D48" s="70"/>
-      <c r="E48" s="59" t="s">
+      <c r="F48" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="G48" s="92"/>
+      <c r="H48" s="92" t="s">
+        <v>52</v>
+      </c>
+      <c r="I48" s="92"/>
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="92" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" s="92"/>
+      <c r="C49" s="92" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" s="92"/>
+      <c r="E49" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="F48" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="G48" s="70"/>
-      <c r="H48" s="70" t="s">
-        <v>52</v>
-      </c>
-      <c r="I48" s="70"/>
-      <c r="J48" s="1"/>
-    </row>
-    <row r="49" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="B49" s="70"/>
-      <c r="C49" s="70" t="s">
-        <v>31</v>
-      </c>
-      <c r="D49" s="70"/>
-      <c r="E49" s="59" t="s">
+      <c r="F49" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="G49" s="92"/>
+      <c r="H49" s="99" t="s">
+        <v>53</v>
+      </c>
+      <c r="I49" s="99"/>
+      <c r="J49" s="1"/>
+    </row>
+    <row r="50" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="92" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" s="92"/>
+      <c r="C50" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="92"/>
+      <c r="E50" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="F49" s="70" t="s">
-        <v>42</v>
-      </c>
-      <c r="G49" s="70"/>
-      <c r="H49" s="71" t="s">
-        <v>53</v>
-      </c>
-      <c r="I49" s="71"/>
-      <c r="J49" s="1"/>
-    </row>
-    <row r="50" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="70" t="s">
-        <v>21</v>
-      </c>
-      <c r="B50" s="70"/>
-      <c r="C50" s="70" t="s">
-        <v>32</v>
-      </c>
-      <c r="D50" s="70"/>
-      <c r="E50" s="59" t="s">
+      <c r="F50" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="G50" s="97"/>
+      <c r="H50" s="97" t="s">
+        <v>54</v>
+      </c>
+      <c r="I50" s="97"/>
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" s="92"/>
+      <c r="C51" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="92"/>
+      <c r="E51" s="58" t="s">
         <v>154</v>
       </c>
-      <c r="F50" s="72" t="s">
-        <v>43</v>
-      </c>
-      <c r="G50" s="72"/>
-      <c r="H50" s="72" t="s">
-        <v>54</v>
-      </c>
-      <c r="I50" s="72"/>
-      <c r="J50" s="1"/>
-    </row>
-    <row r="51" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="B51" s="70"/>
-      <c r="C51" s="70" t="s">
-        <v>33</v>
-      </c>
-      <c r="D51" s="70"/>
-      <c r="E51" s="59" t="s">
-        <v>155</v>
-      </c>
-      <c r="F51" s="70" t="s">
+      <c r="F51" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="G51" s="70"/>
-      <c r="H51" s="71" t="s">
+      <c r="G51" s="92"/>
+      <c r="H51" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="I51" s="71"/>
+      <c r="I51" s="99"/>
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2800,267 +2781,267 @@
       <c r="J54" s="1"/>
     </row>
     <row r="55" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="73" t="s">
+      <c r="A55" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="B55" s="74"/>
-      <c r="C55" s="73" t="s">
+      <c r="B55" s="89"/>
+      <c r="C55" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="D55" s="74"/>
+      <c r="D55" s="89"/>
       <c r="E55" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F55" s="62" t="s">
+      <c r="F55" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="G55" s="62"/>
-      <c r="H55" s="75" t="s">
+      <c r="G55" s="86"/>
+      <c r="H55" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="I55" s="75"/>
+      <c r="I55" s="61"/>
       <c r="J55" s="1"/>
     </row>
     <row r="56" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="70" t="s">
+      <c r="A56" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="70"/>
-      <c r="C56" s="70" t="s">
+      <c r="B56" s="92"/>
+      <c r="C56" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="D56" s="70"/>
-      <c r="E56" s="59" t="s">
+      <c r="D56" s="92"/>
+      <c r="E56" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="F56" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="G56" s="92"/>
+      <c r="H56" s="99" t="s">
+        <v>45</v>
+      </c>
+      <c r="I56" s="99"/>
+      <c r="J56" s="1"/>
+    </row>
+    <row r="57" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="92"/>
+      <c r="C57" s="97" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57" s="97"/>
+      <c r="E57" s="58" t="s">
         <v>156</v>
       </c>
-      <c r="F56" s="70" t="s">
-        <v>34</v>
-      </c>
-      <c r="G56" s="70"/>
-      <c r="H56" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="I56" s="71"/>
-      <c r="J56" s="1"/>
-    </row>
-    <row r="57" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="B57" s="70"/>
-      <c r="C57" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="D57" s="72"/>
-      <c r="E57" s="59" t="s">
+      <c r="F57" s="92" t="s">
+        <v>35</v>
+      </c>
+      <c r="G57" s="92"/>
+      <c r="H57" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" s="99"/>
+      <c r="J57" s="1"/>
+    </row>
+    <row r="58" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="92" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" s="92"/>
+      <c r="C58" s="92" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" s="92"/>
+      <c r="E58" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="F57" s="70" t="s">
-        <v>35</v>
-      </c>
-      <c r="G57" s="70"/>
-      <c r="H57" s="71" t="s">
-        <v>46</v>
-      </c>
-      <c r="I57" s="71"/>
-      <c r="J57" s="1"/>
-    </row>
-    <row r="58" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="70" t="s">
-        <v>14</v>
-      </c>
-      <c r="B58" s="70"/>
-      <c r="C58" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="D58" s="70"/>
-      <c r="E58" s="59" t="s">
+      <c r="F58" s="92" t="s">
+        <v>36</v>
+      </c>
+      <c r="G58" s="92"/>
+      <c r="H58" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" s="92"/>
+      <c r="J58" s="1"/>
+    </row>
+    <row r="59" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="92" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" s="92"/>
+      <c r="C59" s="92" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59" s="92"/>
+      <c r="E59" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F58" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="G58" s="70"/>
-      <c r="H58" s="70" t="s">
-        <v>47</v>
-      </c>
-      <c r="I58" s="70"/>
-      <c r="J58" s="1"/>
-    </row>
-    <row r="59" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="70" t="s">
-        <v>15</v>
-      </c>
-      <c r="B59" s="70"/>
-      <c r="C59" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="D59" s="70"/>
-      <c r="E59" s="59" t="s">
+      <c r="F59" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="G59" s="92"/>
+      <c r="H59" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="I59" s="92"/>
+      <c r="J59" s="1"/>
+    </row>
+    <row r="60" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="92" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" s="92"/>
+      <c r="C60" s="97" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60" s="97"/>
+      <c r="E60" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="F59" s="70" t="s">
-        <v>37</v>
-      </c>
-      <c r="G59" s="70"/>
-      <c r="H59" s="70" t="s">
-        <v>48</v>
-      </c>
-      <c r="I59" s="70"/>
-      <c r="J59" s="1"/>
-    </row>
-    <row r="60" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="70" t="s">
-        <v>16</v>
-      </c>
-      <c r="B60" s="70"/>
-      <c r="C60" s="72" t="s">
-        <v>27</v>
-      </c>
-      <c r="D60" s="72"/>
-      <c r="E60" s="59" t="s">
+      <c r="F60" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="G60" s="92"/>
+      <c r="H60" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="I60" s="92"/>
+      <c r="J60" s="1"/>
+    </row>
+    <row r="61" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="92" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" s="92"/>
+      <c r="C61" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="92"/>
+      <c r="E61" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="F60" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="G60" s="70"/>
-      <c r="H60" s="70" t="s">
-        <v>49</v>
-      </c>
-      <c r="I60" s="70"/>
-      <c r="J60" s="1"/>
-    </row>
-    <row r="61" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="B61" s="70"/>
-      <c r="C61" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="70"/>
-      <c r="E61" s="59" t="s">
+      <c r="F61" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="G61" s="92"/>
+      <c r="H61" s="92" t="s">
+        <v>50</v>
+      </c>
+      <c r="I61" s="92"/>
+      <c r="J61" s="1"/>
+    </row>
+    <row r="62" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="92"/>
+      <c r="C62" s="92" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" s="92"/>
+      <c r="E62" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="F61" s="70" t="s">
-        <v>39</v>
-      </c>
-      <c r="G61" s="70"/>
-      <c r="H61" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="I61" s="70"/>
-      <c r="J61" s="1"/>
-    </row>
-    <row r="62" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="70" t="s">
-        <v>18</v>
-      </c>
-      <c r="B62" s="70"/>
-      <c r="C62" s="70" t="s">
-        <v>29</v>
-      </c>
-      <c r="D62" s="70"/>
-      <c r="E62" s="59" t="s">
+      <c r="F62" s="92" t="s">
+        <v>40</v>
+      </c>
+      <c r="G62" s="92"/>
+      <c r="H62" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="I62" s="92"/>
+      <c r="J62" s="1"/>
+    </row>
+    <row r="63" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="92" t="s">
+        <v>19</v>
+      </c>
+      <c r="B63" s="92"/>
+      <c r="C63" s="92" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63" s="92"/>
+      <c r="E63" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="F62" s="70" t="s">
-        <v>40</v>
-      </c>
-      <c r="G62" s="70"/>
-      <c r="H62" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="I62" s="70"/>
-      <c r="J62" s="1"/>
-    </row>
-    <row r="63" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="B63" s="70"/>
-      <c r="C63" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="D63" s="70"/>
-      <c r="E63" s="59" t="s">
+      <c r="F63" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="G63" s="92"/>
+      <c r="H63" s="92" t="s">
+        <v>52</v>
+      </c>
+      <c r="I63" s="92"/>
+      <c r="J63" s="1"/>
+    </row>
+    <row r="64" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="92" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" s="92"/>
+      <c r="C64" s="92" t="s">
+        <v>31</v>
+      </c>
+      <c r="D64" s="92"/>
+      <c r="E64" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="F63" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="G63" s="70"/>
-      <c r="H63" s="70" t="s">
-        <v>52</v>
-      </c>
-      <c r="I63" s="70"/>
-      <c r="J63" s="1"/>
-    </row>
-    <row r="64" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="B64" s="70"/>
-      <c r="C64" s="70" t="s">
-        <v>31</v>
-      </c>
-      <c r="D64" s="70"/>
-      <c r="E64" s="59" t="s">
+      <c r="F64" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="G64" s="92"/>
+      <c r="H64" s="99" t="s">
+        <v>53</v>
+      </c>
+      <c r="I64" s="99"/>
+      <c r="J64" s="1"/>
+    </row>
+    <row r="65" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="92" t="s">
+        <v>21</v>
+      </c>
+      <c r="B65" s="92"/>
+      <c r="C65" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="D65" s="92"/>
+      <c r="E65" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="F64" s="70" t="s">
-        <v>42</v>
-      </c>
-      <c r="G64" s="70"/>
-      <c r="H64" s="71" t="s">
-        <v>53</v>
-      </c>
-      <c r="I64" s="71"/>
-      <c r="J64" s="1"/>
-    </row>
-    <row r="65" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="70" t="s">
-        <v>21</v>
-      </c>
-      <c r="B65" s="70"/>
-      <c r="C65" s="70" t="s">
-        <v>32</v>
-      </c>
-      <c r="D65" s="70"/>
-      <c r="E65" s="59" t="s">
+      <c r="F65" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="G65" s="97"/>
+      <c r="H65" s="97" t="s">
+        <v>54</v>
+      </c>
+      <c r="I65" s="97"/>
+      <c r="J65" s="1"/>
+    </row>
+    <row r="66" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="B66" s="92"/>
+      <c r="C66" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="D66" s="92"/>
+      <c r="E66" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="F65" s="72" t="s">
-        <v>43</v>
-      </c>
-      <c r="G65" s="72"/>
-      <c r="H65" s="72" t="s">
-        <v>54</v>
-      </c>
-      <c r="I65" s="72"/>
-      <c r="J65" s="1"/>
-    </row>
-    <row r="66" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="B66" s="70"/>
-      <c r="C66" s="70" t="s">
-        <v>33</v>
-      </c>
-      <c r="D66" s="70"/>
-      <c r="E66" s="59" t="s">
-        <v>166</v>
-      </c>
-      <c r="F66" s="70" t="s">
+      <c r="F66" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="G66" s="70"/>
-      <c r="H66" s="71" t="s">
+      <c r="G66" s="92"/>
+      <c r="H66" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="I66" s="71"/>
+      <c r="I66" s="99"/>
       <c r="J66" s="1"/>
     </row>
     <row r="67" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.2">
@@ -3102,267 +3083,267 @@
       <c r="J69" s="1"/>
     </row>
     <row r="70" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="73" t="s">
+      <c r="A70" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="B70" s="74"/>
-      <c r="C70" s="73" t="s">
+      <c r="B70" s="89"/>
+      <c r="C70" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="D70" s="74"/>
+      <c r="D70" s="89"/>
       <c r="E70" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F70" s="62" t="s">
+      <c r="F70" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="G70" s="62"/>
-      <c r="H70" s="75" t="s">
+      <c r="G70" s="86"/>
+      <c r="H70" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="I70" s="75"/>
+      <c r="I70" s="61"/>
       <c r="J70" s="1"/>
     </row>
     <row r="71" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="70" t="s">
+      <c r="A71" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B71" s="70"/>
-      <c r="C71" s="70" t="s">
+      <c r="B71" s="92"/>
+      <c r="C71" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="D71" s="70"/>
-      <c r="E71" s="59" t="s">
+      <c r="D71" s="92"/>
+      <c r="E71" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="F71" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="G71" s="92"/>
+      <c r="H71" s="99" t="s">
+        <v>45</v>
+      </c>
+      <c r="I71" s="99"/>
+      <c r="J71" s="1"/>
+    </row>
+    <row r="72" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" s="92"/>
+      <c r="C72" s="97" t="s">
+        <v>24</v>
+      </c>
+      <c r="D72" s="97"/>
+      <c r="E72" s="58" t="s">
         <v>167</v>
       </c>
-      <c r="F71" s="70" t="s">
-        <v>34</v>
-      </c>
-      <c r="G71" s="70"/>
-      <c r="H71" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="I71" s="71"/>
-      <c r="J71" s="1"/>
-    </row>
-    <row r="72" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="B72" s="70"/>
-      <c r="C72" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="D72" s="72"/>
-      <c r="E72" s="59" t="s">
+      <c r="F72" s="92" t="s">
+        <v>35</v>
+      </c>
+      <c r="G72" s="92"/>
+      <c r="H72" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" s="99"/>
+      <c r="J72" s="1"/>
+    </row>
+    <row r="73" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="92" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" s="92"/>
+      <c r="C73" s="92" t="s">
+        <v>25</v>
+      </c>
+      <c r="D73" s="92"/>
+      <c r="E73" s="58" t="s">
         <v>168</v>
       </c>
-      <c r="F72" s="70" t="s">
-        <v>35</v>
-      </c>
-      <c r="G72" s="70"/>
-      <c r="H72" s="71" t="s">
-        <v>46</v>
-      </c>
-      <c r="I72" s="71"/>
-      <c r="J72" s="1"/>
-    </row>
-    <row r="73" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="70" t="s">
-        <v>14</v>
-      </c>
-      <c r="B73" s="70"/>
-      <c r="C73" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="D73" s="70"/>
-      <c r="E73" s="59" t="s">
+      <c r="F73" s="92" t="s">
+        <v>36</v>
+      </c>
+      <c r="G73" s="92"/>
+      <c r="H73" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" s="92"/>
+      <c r="J73" s="1"/>
+    </row>
+    <row r="74" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="92" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74" s="92"/>
+      <c r="C74" s="92" t="s">
+        <v>26</v>
+      </c>
+      <c r="D74" s="92"/>
+      <c r="E74" s="58" t="s">
         <v>169</v>
       </c>
-      <c r="F73" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="G73" s="70"/>
-      <c r="H73" s="70" t="s">
-        <v>47</v>
-      </c>
-      <c r="I73" s="70"/>
-      <c r="J73" s="1"/>
-    </row>
-    <row r="74" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="70" t="s">
-        <v>15</v>
-      </c>
-      <c r="B74" s="70"/>
-      <c r="C74" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="D74" s="70"/>
-      <c r="E74" s="59" t="s">
+      <c r="F74" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="G74" s="92"/>
+      <c r="H74" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="I74" s="92"/>
+      <c r="J74" s="1"/>
+    </row>
+    <row r="75" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="92" t="s">
+        <v>16</v>
+      </c>
+      <c r="B75" s="92"/>
+      <c r="C75" s="97" t="s">
+        <v>27</v>
+      </c>
+      <c r="D75" s="97"/>
+      <c r="E75" s="58" t="s">
         <v>170</v>
       </c>
-      <c r="F74" s="70" t="s">
-        <v>37</v>
-      </c>
-      <c r="G74" s="70"/>
-      <c r="H74" s="70" t="s">
-        <v>48</v>
-      </c>
-      <c r="I74" s="70"/>
-      <c r="J74" s="1"/>
-    </row>
-    <row r="75" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="70" t="s">
-        <v>16</v>
-      </c>
-      <c r="B75" s="70"/>
-      <c r="C75" s="72" t="s">
-        <v>27</v>
-      </c>
-      <c r="D75" s="72"/>
-      <c r="E75" s="59" t="s">
+      <c r="F75" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="G75" s="92"/>
+      <c r="H75" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="I75" s="92"/>
+      <c r="J75" s="1"/>
+    </row>
+    <row r="76" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="92" t="s">
+        <v>17</v>
+      </c>
+      <c r="B76" s="92"/>
+      <c r="C76" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="D76" s="92"/>
+      <c r="E76" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="F75" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="G75" s="70"/>
-      <c r="H75" s="70" t="s">
-        <v>49</v>
-      </c>
-      <c r="I75" s="70"/>
-      <c r="J75" s="1"/>
-    </row>
-    <row r="76" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="B76" s="70"/>
-      <c r="C76" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="D76" s="70"/>
-      <c r="E76" s="59" t="s">
+      <c r="F76" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="G76" s="92"/>
+      <c r="H76" s="92" t="s">
+        <v>50</v>
+      </c>
+      <c r="I76" s="92"/>
+      <c r="J76" s="1"/>
+    </row>
+    <row r="77" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="B77" s="92"/>
+      <c r="C77" s="92" t="s">
+        <v>29</v>
+      </c>
+      <c r="D77" s="92"/>
+      <c r="E77" s="58" t="s">
         <v>172</v>
       </c>
-      <c r="F76" s="70" t="s">
-        <v>39</v>
-      </c>
-      <c r="G76" s="70"/>
-      <c r="H76" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="I76" s="70"/>
-      <c r="J76" s="1"/>
-    </row>
-    <row r="77" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="70" t="s">
-        <v>18</v>
-      </c>
-      <c r="B77" s="70"/>
-      <c r="C77" s="70" t="s">
-        <v>29</v>
-      </c>
-      <c r="D77" s="70"/>
-      <c r="E77" s="59" t="s">
+      <c r="F77" s="92" t="s">
+        <v>40</v>
+      </c>
+      <c r="G77" s="92"/>
+      <c r="H77" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="I77" s="92"/>
+      <c r="J77" s="1"/>
+    </row>
+    <row r="78" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="92" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78" s="92"/>
+      <c r="C78" s="92" t="s">
+        <v>30</v>
+      </c>
+      <c r="D78" s="92"/>
+      <c r="E78" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="F77" s="70" t="s">
-        <v>40</v>
-      </c>
-      <c r="G77" s="70"/>
-      <c r="H77" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="I77" s="70"/>
-      <c r="J77" s="1"/>
-    </row>
-    <row r="78" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="B78" s="70"/>
-      <c r="C78" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="D78" s="70"/>
-      <c r="E78" s="59" t="s">
+      <c r="F78" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="G78" s="92"/>
+      <c r="H78" s="92" t="s">
+        <v>52</v>
+      </c>
+      <c r="I78" s="92"/>
+      <c r="J78" s="1"/>
+    </row>
+    <row r="79" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="92" t="s">
+        <v>20</v>
+      </c>
+      <c r="B79" s="92"/>
+      <c r="C79" s="92" t="s">
+        <v>31</v>
+      </c>
+      <c r="D79" s="92"/>
+      <c r="E79" s="58" t="s">
         <v>174</v>
       </c>
-      <c r="F78" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="G78" s="70"/>
-      <c r="H78" s="70" t="s">
-        <v>52</v>
-      </c>
-      <c r="I78" s="70"/>
-      <c r="J78" s="1"/>
-    </row>
-    <row r="79" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="B79" s="70"/>
-      <c r="C79" s="70" t="s">
-        <v>31</v>
-      </c>
-      <c r="D79" s="70"/>
-      <c r="E79" s="59" t="s">
+      <c r="F79" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="G79" s="92"/>
+      <c r="H79" s="99" t="s">
+        <v>53</v>
+      </c>
+      <c r="I79" s="99"/>
+      <c r="J79" s="1"/>
+    </row>
+    <row r="80" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="92" t="s">
+        <v>21</v>
+      </c>
+      <c r="B80" s="92"/>
+      <c r="C80" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="D80" s="92"/>
+      <c r="E80" s="58" t="s">
         <v>175</v>
       </c>
-      <c r="F79" s="70" t="s">
-        <v>42</v>
-      </c>
-      <c r="G79" s="70"/>
-      <c r="H79" s="71" t="s">
-        <v>53</v>
-      </c>
-      <c r="I79" s="71"/>
-      <c r="J79" s="1"/>
-    </row>
-    <row r="80" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="70" t="s">
-        <v>21</v>
-      </c>
-      <c r="B80" s="70"/>
-      <c r="C80" s="70" t="s">
-        <v>32</v>
-      </c>
-      <c r="D80" s="70"/>
-      <c r="E80" s="59" t="s">
+      <c r="F80" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="G80" s="97"/>
+      <c r="H80" s="97" t="s">
+        <v>54</v>
+      </c>
+      <c r="I80" s="97"/>
+      <c r="J80" s="1"/>
+    </row>
+    <row r="81" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="B81" s="92"/>
+      <c r="C81" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="D81" s="92"/>
+      <c r="E81" s="58" t="s">
         <v>176</v>
       </c>
-      <c r="F80" s="72" t="s">
-        <v>43</v>
-      </c>
-      <c r="G80" s="72"/>
-      <c r="H80" s="72" t="s">
-        <v>54</v>
-      </c>
-      <c r="I80" s="72"/>
-      <c r="J80" s="1"/>
-    </row>
-    <row r="81" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="B81" s="70"/>
-      <c r="C81" s="70" t="s">
-        <v>33</v>
-      </c>
-      <c r="D81" s="70"/>
-      <c r="E81" s="59" t="s">
-        <v>177</v>
-      </c>
-      <c r="F81" s="70" t="s">
+      <c r="F81" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="G81" s="70"/>
-      <c r="H81" s="71" t="s">
+      <c r="G81" s="92"/>
+      <c r="H81" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="I81" s="71"/>
+      <c r="I81" s="99"/>
       <c r="J81" s="1"/>
     </row>
     <row r="82" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3404,267 +3385,267 @@
       <c r="J84" s="1"/>
     </row>
     <row r="85" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="73" t="s">
+      <c r="A85" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="B85" s="74"/>
-      <c r="C85" s="73" t="s">
+      <c r="B85" s="89"/>
+      <c r="C85" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="D85" s="74"/>
+      <c r="D85" s="89"/>
       <c r="E85" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F85" s="62" t="s">
+      <c r="F85" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="G85" s="62"/>
-      <c r="H85" s="75" t="s">
+      <c r="G85" s="86"/>
+      <c r="H85" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="I85" s="75"/>
+      <c r="I85" s="61"/>
       <c r="J85" s="1"/>
     </row>
     <row r="86" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="70" t="s">
+      <c r="A86" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B86" s="70"/>
-      <c r="C86" s="70" t="s">
+      <c r="B86" s="92"/>
+      <c r="C86" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="D86" s="70"/>
-      <c r="E86" s="59" t="s">
+      <c r="D86" s="92"/>
+      <c r="E86" s="58" t="s">
+        <v>177</v>
+      </c>
+      <c r="F86" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="G86" s="92"/>
+      <c r="H86" s="99" t="s">
+        <v>45</v>
+      </c>
+      <c r="I86" s="99"/>
+      <c r="J86" s="1"/>
+    </row>
+    <row r="87" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="B87" s="92"/>
+      <c r="C87" s="97" t="s">
+        <v>24</v>
+      </c>
+      <c r="D87" s="97"/>
+      <c r="E87" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="F86" s="70" t="s">
-        <v>34</v>
-      </c>
-      <c r="G86" s="70"/>
-      <c r="H86" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="I86" s="71"/>
-      <c r="J86" s="1"/>
-    </row>
-    <row r="87" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="B87" s="70"/>
-      <c r="C87" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="D87" s="72"/>
-      <c r="E87" s="59" t="s">
+      <c r="F87" s="92" t="s">
+        <v>35</v>
+      </c>
+      <c r="G87" s="92"/>
+      <c r="H87" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="I87" s="99"/>
+      <c r="J87" s="1"/>
+    </row>
+    <row r="88" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="92" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" s="92"/>
+      <c r="C88" s="92" t="s">
+        <v>25</v>
+      </c>
+      <c r="D88" s="92"/>
+      <c r="E88" s="58" t="s">
         <v>179</v>
       </c>
-      <c r="F87" s="70" t="s">
-        <v>35</v>
-      </c>
-      <c r="G87" s="70"/>
-      <c r="H87" s="71" t="s">
-        <v>46</v>
-      </c>
-      <c r="I87" s="71"/>
-      <c r="J87" s="1"/>
-    </row>
-    <row r="88" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="70" t="s">
-        <v>14</v>
-      </c>
-      <c r="B88" s="70"/>
-      <c r="C88" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="D88" s="70"/>
-      <c r="E88" s="59" t="s">
+      <c r="F88" s="92" t="s">
+        <v>36</v>
+      </c>
+      <c r="G88" s="92"/>
+      <c r="H88" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" s="92"/>
+      <c r="J88" s="1"/>
+    </row>
+    <row r="89" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="92" t="s">
+        <v>15</v>
+      </c>
+      <c r="B89" s="92"/>
+      <c r="C89" s="92" t="s">
+        <v>26</v>
+      </c>
+      <c r="D89" s="92"/>
+      <c r="E89" s="58" t="s">
         <v>180</v>
       </c>
-      <c r="F88" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="G88" s="70"/>
-      <c r="H88" s="70" t="s">
-        <v>47</v>
-      </c>
-      <c r="I88" s="70"/>
-      <c r="J88" s="1"/>
-    </row>
-    <row r="89" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="70" t="s">
-        <v>15</v>
-      </c>
-      <c r="B89" s="70"/>
-      <c r="C89" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="D89" s="70"/>
-      <c r="E89" s="59" t="s">
+      <c r="F89" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="G89" s="92"/>
+      <c r="H89" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="I89" s="92"/>
+      <c r="J89" s="1"/>
+    </row>
+    <row r="90" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="92" t="s">
+        <v>16</v>
+      </c>
+      <c r="B90" s="92"/>
+      <c r="C90" s="97" t="s">
+        <v>27</v>
+      </c>
+      <c r="D90" s="97"/>
+      <c r="E90" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="F89" s="70" t="s">
-        <v>37</v>
-      </c>
-      <c r="G89" s="70"/>
-      <c r="H89" s="70" t="s">
-        <v>48</v>
-      </c>
-      <c r="I89" s="70"/>
-      <c r="J89" s="1"/>
-    </row>
-    <row r="90" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="70" t="s">
-        <v>16</v>
-      </c>
-      <c r="B90" s="70"/>
-      <c r="C90" s="72" t="s">
-        <v>27</v>
-      </c>
-      <c r="D90" s="72"/>
-      <c r="E90" s="59" t="s">
+      <c r="F90" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="G90" s="92"/>
+      <c r="H90" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="I90" s="92"/>
+      <c r="J90" s="1"/>
+    </row>
+    <row r="91" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="92" t="s">
+        <v>17</v>
+      </c>
+      <c r="B91" s="92"/>
+      <c r="C91" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="D91" s="92"/>
+      <c r="E91" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="F90" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="G90" s="70"/>
-      <c r="H90" s="70" t="s">
-        <v>49</v>
-      </c>
-      <c r="I90" s="70"/>
-      <c r="J90" s="1"/>
-    </row>
-    <row r="91" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="B91" s="70"/>
-      <c r="C91" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="D91" s="70"/>
-      <c r="E91" s="59" t="s">
+      <c r="F91" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="G91" s="92"/>
+      <c r="H91" s="92" t="s">
+        <v>50</v>
+      </c>
+      <c r="I91" s="92"/>
+      <c r="J91" s="1"/>
+    </row>
+    <row r="92" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="B92" s="92"/>
+      <c r="C92" s="92" t="s">
+        <v>29</v>
+      </c>
+      <c r="D92" s="92"/>
+      <c r="E92" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="F91" s="70" t="s">
-        <v>39</v>
-      </c>
-      <c r="G91" s="70"/>
-      <c r="H91" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="I91" s="70"/>
-      <c r="J91" s="1"/>
-    </row>
-    <row r="92" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="70" t="s">
-        <v>18</v>
-      </c>
-      <c r="B92" s="70"/>
-      <c r="C92" s="70" t="s">
-        <v>29</v>
-      </c>
-      <c r="D92" s="70"/>
-      <c r="E92" s="59" t="s">
+      <c r="F92" s="92" t="s">
+        <v>40</v>
+      </c>
+      <c r="G92" s="92"/>
+      <c r="H92" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="I92" s="92"/>
+      <c r="J92" s="1"/>
+    </row>
+    <row r="93" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="92" t="s">
+        <v>19</v>
+      </c>
+      <c r="B93" s="92"/>
+      <c r="C93" s="92" t="s">
+        <v>30</v>
+      </c>
+      <c r="D93" s="92"/>
+      <c r="E93" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="F92" s="70" t="s">
-        <v>40</v>
-      </c>
-      <c r="G92" s="70"/>
-      <c r="H92" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="I92" s="70"/>
-      <c r="J92" s="1"/>
-    </row>
-    <row r="93" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="B93" s="70"/>
-      <c r="C93" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="D93" s="70"/>
-      <c r="E93" s="59" t="s">
+      <c r="F93" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="G93" s="92"/>
+      <c r="H93" s="92" t="s">
+        <v>52</v>
+      </c>
+      <c r="I93" s="92"/>
+      <c r="J93" s="1"/>
+    </row>
+    <row r="94" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="92" t="s">
+        <v>20</v>
+      </c>
+      <c r="B94" s="92"/>
+      <c r="C94" s="92" t="s">
+        <v>31</v>
+      </c>
+      <c r="D94" s="92"/>
+      <c r="E94" s="58" t="s">
         <v>185</v>
       </c>
-      <c r="F93" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="G93" s="70"/>
-      <c r="H93" s="70" t="s">
-        <v>52</v>
-      </c>
-      <c r="I93" s="70"/>
-      <c r="J93" s="1"/>
-    </row>
-    <row r="94" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="B94" s="70"/>
-      <c r="C94" s="70" t="s">
-        <v>31</v>
-      </c>
-      <c r="D94" s="70"/>
-      <c r="E94" s="59" t="s">
+      <c r="F94" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="G94" s="92"/>
+      <c r="H94" s="99" t="s">
+        <v>53</v>
+      </c>
+      <c r="I94" s="99"/>
+      <c r="J94" s="1"/>
+    </row>
+    <row r="95" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="92" t="s">
+        <v>21</v>
+      </c>
+      <c r="B95" s="92"/>
+      <c r="C95" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="D95" s="92"/>
+      <c r="E95" s="58" t="s">
         <v>186</v>
       </c>
-      <c r="F94" s="70" t="s">
-        <v>42</v>
-      </c>
-      <c r="G94" s="70"/>
-      <c r="H94" s="71" t="s">
-        <v>53</v>
-      </c>
-      <c r="I94" s="71"/>
-      <c r="J94" s="1"/>
-    </row>
-    <row r="95" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="70" t="s">
-        <v>21</v>
-      </c>
-      <c r="B95" s="70"/>
-      <c r="C95" s="70" t="s">
-        <v>32</v>
-      </c>
-      <c r="D95" s="70"/>
-      <c r="E95" s="59" t="s">
+      <c r="F95" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="G95" s="97"/>
+      <c r="H95" s="97" t="s">
+        <v>54</v>
+      </c>
+      <c r="I95" s="97"/>
+      <c r="J95" s="1"/>
+    </row>
+    <row r="96" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="B96" s="92"/>
+      <c r="C96" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="D96" s="92"/>
+      <c r="E96" s="58" t="s">
         <v>187</v>
       </c>
-      <c r="F95" s="72" t="s">
-        <v>43</v>
-      </c>
-      <c r="G95" s="72"/>
-      <c r="H95" s="72" t="s">
-        <v>54</v>
-      </c>
-      <c r="I95" s="72"/>
-      <c r="J95" s="1"/>
-    </row>
-    <row r="96" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="B96" s="70"/>
-      <c r="C96" s="70" t="s">
-        <v>33</v>
-      </c>
-      <c r="D96" s="70"/>
-      <c r="E96" s="59" t="s">
-        <v>188</v>
-      </c>
-      <c r="F96" s="70" t="s">
+      <c r="F96" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="G96" s="70"/>
-      <c r="H96" s="71" t="s">
+      <c r="G96" s="92"/>
+      <c r="H96" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="I96" s="71"/>
+      <c r="I96" s="99"/>
       <c r="J96" s="1"/>
     </row>
     <row r="97" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3680,17 +3661,17 @@
       <c r="J97" s="1"/>
     </row>
     <row r="98" spans="1:12" s="16" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="61" t="s">
+      <c r="A98" s="101" t="s">
         <v>117</v>
       </c>
-      <c r="B98" s="61"/>
-      <c r="C98" s="61"/>
-      <c r="D98" s="61"/>
-      <c r="E98" s="61"/>
-      <c r="F98" s="61"/>
-      <c r="G98" s="61"/>
-      <c r="H98" s="61"/>
-      <c r="I98" s="61"/>
+      <c r="B98" s="101"/>
+      <c r="C98" s="101"/>
+      <c r="D98" s="101"/>
+      <c r="E98" s="101"/>
+      <c r="F98" s="101"/>
+      <c r="G98" s="101"/>
+      <c r="H98" s="101"/>
+      <c r="I98" s="101"/>
       <c r="J98" s="1"/>
     </row>
     <row r="99" spans="1:12" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3706,14 +3687,14 @@
       <c r="J99" s="1"/>
     </row>
     <row r="100" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="75" t="s">
+      <c r="A100" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="B100" s="75"/>
-      <c r="C100" s="75" t="s">
+      <c r="B100" s="61"/>
+      <c r="C100" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="D100" s="75"/>
+      <c r="D100" s="61"/>
       <c r="E100" s="12"/>
       <c r="F100" s="12"/>
       <c r="G100" s="12"/>
@@ -3722,14 +3703,14 @@
       <c r="J100" s="1"/>
     </row>
     <row r="101" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="98" t="s">
+      <c r="A101" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="B101" s="98"/>
-      <c r="C101" s="75" t="s">
+      <c r="B101" s="62"/>
+      <c r="C101" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="D101" s="75"/>
+      <c r="D101" s="61"/>
       <c r="E101" s="12"/>
       <c r="F101" s="12"/>
       <c r="G101" s="12"/>
@@ -3750,17 +3731,17 @@
       <c r="J102" s="1"/>
     </row>
     <row r="103" spans="1:12" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="61" t="s">
+      <c r="A103" s="101" t="s">
         <v>126</v>
       </c>
-      <c r="B103" s="61"/>
-      <c r="C103" s="61"/>
-      <c r="D103" s="61"/>
-      <c r="E103" s="61"/>
-      <c r="F103" s="61"/>
-      <c r="G103" s="61"/>
-      <c r="H103" s="61"/>
-      <c r="I103" s="61"/>
+      <c r="B103" s="101"/>
+      <c r="C103" s="101"/>
+      <c r="D103" s="101"/>
+      <c r="E103" s="101"/>
+      <c r="F103" s="101"/>
+      <c r="G103" s="101"/>
+      <c r="H103" s="101"/>
+      <c r="I103" s="101"/>
       <c r="J103" s="1"/>
     </row>
     <row r="104" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3779,18 +3760,18 @@
       <c r="A105" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B105" s="73" t="s">
+      <c r="B105" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="C105" s="74"/>
-      <c r="D105" s="73" t="s">
+      <c r="C105" s="89"/>
+      <c r="D105" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="E105" s="74"/>
-      <c r="F105" s="73" t="s">
+      <c r="E105" s="89"/>
+      <c r="F105" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="G105" s="74"/>
+      <c r="G105" s="89"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
@@ -3800,18 +3781,18 @@
       <c r="A106" s="28">
         <v>1</v>
       </c>
-      <c r="B106" s="77" t="s">
+      <c r="B106" s="90" t="s">
+        <v>188</v>
+      </c>
+      <c r="C106" s="91"/>
+      <c r="D106" s="98" t="s">
         <v>189</v>
       </c>
-      <c r="C106" s="78"/>
-      <c r="D106" s="79" t="s">
-        <v>190</v>
-      </c>
-      <c r="E106" s="79"/>
-      <c r="F106" s="62" t="s">
+      <c r="E106" s="98"/>
+      <c r="F106" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="G106" s="62"/>
+      <c r="G106" s="86"/>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
@@ -3821,16 +3802,16 @@
       <c r="A107" s="28">
         <v>2</v>
       </c>
-      <c r="B107" s="77" t="s">
+      <c r="B107" s="90" t="s">
+        <v>190</v>
+      </c>
+      <c r="C107" s="91"/>
+      <c r="D107" s="98" t="s">
         <v>191</v>
       </c>
-      <c r="C107" s="78"/>
-      <c r="D107" s="79" t="s">
-        <v>192</v>
-      </c>
-      <c r="E107" s="79"/>
-      <c r="F107" s="62"/>
-      <c r="G107" s="62"/>
+      <c r="E107" s="98"/>
+      <c r="F107" s="86"/>
+      <c r="G107" s="86"/>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
@@ -3840,16 +3821,16 @@
       <c r="A108" s="28">
         <v>3</v>
       </c>
-      <c r="B108" s="77" t="s">
+      <c r="B108" s="90" t="s">
+        <v>192</v>
+      </c>
+      <c r="C108" s="91"/>
+      <c r="D108" s="98" t="s">
         <v>193</v>
       </c>
-      <c r="C108" s="78"/>
-      <c r="D108" s="79" t="s">
-        <v>194</v>
-      </c>
-      <c r="E108" s="79"/>
-      <c r="F108" s="62"/>
-      <c r="G108" s="62"/>
+      <c r="E108" s="98"/>
+      <c r="F108" s="86"/>
+      <c r="G108" s="86"/>
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
@@ -3859,16 +3840,16 @@
       <c r="A109" s="28">
         <v>4</v>
       </c>
-      <c r="B109" s="77" t="s">
+      <c r="B109" s="90" t="s">
+        <v>194</v>
+      </c>
+      <c r="C109" s="91"/>
+      <c r="D109" s="98" t="s">
         <v>195</v>
       </c>
-      <c r="C109" s="78"/>
-      <c r="D109" s="79" t="s">
-        <v>196</v>
-      </c>
-      <c r="E109" s="79"/>
-      <c r="F109" s="62"/>
-      <c r="G109" s="62"/>
+      <c r="E109" s="98"/>
+      <c r="F109" s="86"/>
+      <c r="G109" s="86"/>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
@@ -3916,88 +3897,88 @@
       <c r="A113" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B113" s="62" t="s">
+      <c r="B113" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="C113" s="62"/>
-      <c r="D113" s="62" t="s">
+      <c r="C113" s="86"/>
+      <c r="D113" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="E113" s="62"/>
-      <c r="F113" s="62" t="s">
+      <c r="E113" s="86"/>
+      <c r="F113" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="G113" s="62"/>
-      <c r="H113" s="63"/>
-      <c r="I113" s="63"/>
+      <c r="G113" s="86"/>
+      <c r="H113" s="94"/>
+      <c r="I113" s="94"/>
       <c r="J113" s="1"/>
     </row>
     <row r="114" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="27">
         <v>1</v>
       </c>
-      <c r="B114" s="62" t="s">
+      <c r="B114" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="C114" s="62"/>
-      <c r="D114" s="62" t="s">
+      <c r="C114" s="86"/>
+      <c r="D114" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="E114" s="62"/>
-      <c r="F114" s="69">
+      <c r="E114" s="86"/>
+      <c r="F114" s="96">
         <v>4.5</v>
       </c>
-      <c r="G114" s="69"/>
-      <c r="H114" s="63"/>
-      <c r="I114" s="63"/>
+      <c r="G114" s="96"/>
+      <c r="H114" s="94"/>
+      <c r="I114" s="94"/>
       <c r="J114" s="1"/>
     </row>
     <row r="115" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="27">
         <v>2</v>
       </c>
-      <c r="B115" s="62"/>
-      <c r="C115" s="62"/>
-      <c r="D115" s="62"/>
-      <c r="E115" s="62"/>
-      <c r="F115" s="69">
+      <c r="B115" s="86"/>
+      <c r="C115" s="86"/>
+      <c r="D115" s="86"/>
+      <c r="E115" s="86"/>
+      <c r="F115" s="96">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G115" s="69"/>
-      <c r="H115" s="63"/>
-      <c r="I115" s="63"/>
+      <c r="G115" s="96"/>
+      <c r="H115" s="94"/>
+      <c r="I115" s="94"/>
       <c r="J115" s="1"/>
     </row>
     <row r="116" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="27">
         <v>3</v>
       </c>
-      <c r="B116" s="62"/>
-      <c r="C116" s="62"/>
-      <c r="D116" s="62"/>
-      <c r="E116" s="62"/>
-      <c r="F116" s="69">
+      <c r="B116" s="86"/>
+      <c r="C116" s="86"/>
+      <c r="D116" s="86"/>
+      <c r="E116" s="86"/>
+      <c r="F116" s="96">
         <v>4.5</v>
       </c>
-      <c r="G116" s="69"/>
-      <c r="H116" s="63"/>
-      <c r="I116" s="63"/>
+      <c r="G116" s="96"/>
+      <c r="H116" s="94"/>
+      <c r="I116" s="94"/>
       <c r="J116" s="1"/>
     </row>
     <row r="117" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="27">
         <v>4</v>
       </c>
-      <c r="B117" s="62"/>
-      <c r="C117" s="62"/>
-      <c r="D117" s="62"/>
-      <c r="E117" s="62"/>
-      <c r="F117" s="80">
+      <c r="B117" s="86"/>
+      <c r="C117" s="86"/>
+      <c r="D117" s="86"/>
+      <c r="E117" s="86"/>
+      <c r="F117" s="95">
         <v>6</v>
       </c>
-      <c r="G117" s="80"/>
-      <c r="H117" s="63"/>
-      <c r="I117" s="63"/>
+      <c r="G117" s="95"/>
+      <c r="H117" s="94"/>
+      <c r="I117" s="94"/>
       <c r="J117" s="1"/>
     </row>
     <row r="118" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4013,18 +3994,18 @@
       <c r="J118" s="1"/>
     </row>
     <row r="119" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="68" t="s">
+      <c r="A119" s="93" t="s">
         <v>118</v>
       </c>
-      <c r="B119" s="68"/>
-      <c r="C119" s="68"/>
-      <c r="D119" s="68"/>
-      <c r="E119" s="68"/>
-      <c r="F119" s="68"/>
-      <c r="G119" s="68"/>
-      <c r="H119" s="68"/>
-      <c r="I119" s="68"/>
-      <c r="J119" s="68"/>
+      <c r="B119" s="93"/>
+      <c r="C119" s="93"/>
+      <c r="D119" s="93"/>
+      <c r="E119" s="93"/>
+      <c r="F119" s="93"/>
+      <c r="G119" s="93"/>
+      <c r="H119" s="93"/>
+      <c r="I119" s="93"/>
+      <c r="J119" s="93"/>
     </row>
     <row r="120" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="24"/>
@@ -4039,18 +4020,18 @@
       <c r="J120" s="1"/>
     </row>
     <row r="121" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="68" t="s">
+      <c r="A121" s="93" t="s">
         <v>128</v>
       </c>
-      <c r="B121" s="68"/>
-      <c r="C121" s="68"/>
-      <c r="D121" s="68"/>
-      <c r="E121" s="68"/>
-      <c r="F121" s="68"/>
-      <c r="G121" s="68"/>
-      <c r="H121" s="68"/>
-      <c r="I121" s="68"/>
-      <c r="J121" s="68"/>
+      <c r="B121" s="93"/>
+      <c r="C121" s="93"/>
+      <c r="D121" s="93"/>
+      <c r="E121" s="93"/>
+      <c r="F121" s="93"/>
+      <c r="G121" s="93"/>
+      <c r="H121" s="93"/>
+      <c r="I121" s="93"/>
+      <c r="J121" s="93"/>
     </row>
     <row r="122" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="24"/>
@@ -4065,10 +4046,10 @@
       <c r="J122" s="1"/>
     </row>
     <row r="123" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="68" t="s">
+      <c r="A123" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="B123" s="68"/>
+      <c r="B123" s="93"/>
       <c r="C123" s="25"/>
       <c r="D123" s="25"/>
       <c r="E123" s="25"/>
@@ -4091,82 +4072,82 @@
       <c r="J124" s="1"/>
     </row>
     <row r="125" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="66" t="s">
+      <c r="A125" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="B125" s="66"/>
-      <c r="C125" s="62" t="s">
+      <c r="B125" s="85"/>
+      <c r="C125" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="D125" s="62"/>
-      <c r="E125" s="62" t="s">
+      <c r="D125" s="86"/>
+      <c r="E125" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="F125" s="62"/>
-      <c r="G125" s="62" t="s">
+      <c r="F125" s="86"/>
+      <c r="G125" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="H125" s="62"/>
+      <c r="H125" s="86"/>
       <c r="I125" s="20"/>
       <c r="J125" s="1"/>
     </row>
     <row r="126" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="66" t="s">
+      <c r="A126" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="B126" s="66"/>
-      <c r="C126" s="66" t="s">
+      <c r="B126" s="85"/>
+      <c r="C126" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="D126" s="66"/>
-      <c r="E126" s="62" t="s">
+      <c r="D126" s="85"/>
+      <c r="E126" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="F126" s="62"/>
-      <c r="G126" s="67" t="s">
+      <c r="F126" s="86"/>
+      <c r="G126" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="H126" s="67"/>
+      <c r="H126" s="87"/>
       <c r="I126" s="20"/>
       <c r="J126" s="1"/>
     </row>
     <row r="127" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="66" t="s">
+      <c r="A127" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="B127" s="66"/>
-      <c r="C127" s="66" t="s">
+      <c r="B127" s="85"/>
+      <c r="C127" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="D127" s="66"/>
-      <c r="E127" s="62" t="s">
+      <c r="D127" s="85"/>
+      <c r="E127" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="F127" s="62"/>
-      <c r="G127" s="67" t="s">
+      <c r="F127" s="86"/>
+      <c r="G127" s="87" t="s">
         <v>121</v>
       </c>
-      <c r="H127" s="67"/>
+      <c r="H127" s="87"/>
       <c r="I127" s="20"/>
       <c r="J127" s="1"/>
     </row>
     <row r="128" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="66" t="s">
+      <c r="A128" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="B128" s="66"/>
-      <c r="C128" s="66" t="s">
+      <c r="B128" s="85"/>
+      <c r="C128" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="D128" s="66"/>
-      <c r="E128" s="62" t="s">
+      <c r="D128" s="85"/>
+      <c r="E128" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="F128" s="62"/>
-      <c r="G128" s="67" t="s">
+      <c r="F128" s="86"/>
+      <c r="G128" s="87" t="s">
         <v>122</v>
       </c>
-      <c r="H128" s="67"/>
+      <c r="H128" s="87"/>
       <c r="I128" s="20"/>
       <c r="J128" s="1"/>
     </row>
@@ -4183,10 +4164,10 @@
       <c r="J129" s="1"/>
     </row>
     <row r="130" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="68" t="s">
+      <c r="A130" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="B130" s="68"/>
+      <c r="B130" s="93"/>
       <c r="C130" s="25"/>
       <c r="D130" s="25"/>
       <c r="E130" s="25"/>
@@ -4209,120 +4190,120 @@
       <c r="J131" s="1"/>
     </row>
     <row r="132" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="66" t="s">
+      <c r="A132" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="B132" s="66"/>
-      <c r="C132" s="62" t="s">
+      <c r="B132" s="85"/>
+      <c r="C132" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="D132" s="62"/>
-      <c r="E132" s="62" t="s">
+      <c r="D132" s="86"/>
+      <c r="E132" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="F132" s="62"/>
-      <c r="G132" s="62" t="s">
+      <c r="F132" s="86"/>
+      <c r="G132" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="H132" s="62"/>
+      <c r="H132" s="86"/>
       <c r="I132" s="23"/>
       <c r="J132" s="1"/>
     </row>
     <row r="133" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="66" t="s">
+      <c r="A133" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="B133" s="66"/>
-      <c r="C133" s="66" t="s">
+      <c r="B133" s="85"/>
+      <c r="C133" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="D133" s="66"/>
-      <c r="E133" s="62" t="s">
+      <c r="D133" s="85"/>
+      <c r="E133" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="F133" s="62"/>
-      <c r="G133" s="67" t="s">
+      <c r="F133" s="86"/>
+      <c r="G133" s="87" t="s">
         <v>129</v>
       </c>
-      <c r="H133" s="67"/>
+      <c r="H133" s="87"/>
       <c r="I133" s="23"/>
       <c r="J133" s="1"/>
     </row>
     <row r="134" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="66" t="s">
+      <c r="A134" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="B134" s="66"/>
-      <c r="C134" s="66" t="s">
+      <c r="B134" s="85"/>
+      <c r="C134" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="D134" s="66"/>
-      <c r="E134" s="62" t="s">
+      <c r="D134" s="85"/>
+      <c r="E134" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="F134" s="62"/>
-      <c r="G134" s="67" t="s">
+      <c r="F134" s="86"/>
+      <c r="G134" s="87" t="s">
         <v>123</v>
       </c>
-      <c r="H134" s="67"/>
+      <c r="H134" s="87"/>
       <c r="I134" s="23"/>
       <c r="J134" s="1"/>
     </row>
     <row r="135" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="66" t="s">
+      <c r="A135" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="B135" s="66"/>
-      <c r="C135" s="66" t="s">
+      <c r="B135" s="85"/>
+      <c r="C135" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="D135" s="66"/>
-      <c r="E135" s="62" t="s">
+      <c r="D135" s="85"/>
+      <c r="E135" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="F135" s="62"/>
-      <c r="G135" s="67" t="s">
+      <c r="F135" s="86"/>
+      <c r="G135" s="87" t="s">
         <v>124</v>
       </c>
-      <c r="H135" s="67"/>
+      <c r="H135" s="87"/>
       <c r="I135" s="23"/>
       <c r="J135" s="1"/>
     </row>
     <row r="136" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="64"/>
-      <c r="B136" s="64"/>
-      <c r="C136" s="65"/>
-      <c r="D136" s="65"/>
-      <c r="E136" s="65"/>
-      <c r="F136" s="65"/>
-      <c r="G136" s="63"/>
-      <c r="H136" s="63"/>
+      <c r="A136" s="102"/>
+      <c r="B136" s="102"/>
+      <c r="C136" s="103"/>
+      <c r="D136" s="103"/>
+      <c r="E136" s="103"/>
+      <c r="F136" s="103"/>
+      <c r="G136" s="94"/>
+      <c r="H136" s="94"/>
       <c r="I136" s="20"/>
       <c r="J136" s="1"/>
     </row>
     <row r="137" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="68" t="s">
+      <c r="A137" s="93" t="s">
         <v>130</v>
       </c>
-      <c r="B137" s="68"/>
-      <c r="C137" s="68"/>
-      <c r="D137" s="68"/>
-      <c r="E137" s="68"/>
-      <c r="F137" s="68"/>
-      <c r="G137" s="68"/>
-      <c r="H137" s="68"/>
-      <c r="I137" s="68"/>
-      <c r="J137" s="68"/>
+      <c r="B137" s="93"/>
+      <c r="C137" s="93"/>
+      <c r="D137" s="93"/>
+      <c r="E137" s="93"/>
+      <c r="F137" s="93"/>
+      <c r="G137" s="93"/>
+      <c r="H137" s="93"/>
+      <c r="I137" s="93"/>
+      <c r="J137" s="93"/>
     </row>
     <row r="138" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="64"/>
-      <c r="B138" s="64"/>
-      <c r="C138" s="65"/>
-      <c r="D138" s="65"/>
-      <c r="E138" s="65"/>
-      <c r="F138" s="65"/>
-      <c r="G138" s="63"/>
-      <c r="H138" s="63"/>
+      <c r="A138" s="102"/>
+      <c r="B138" s="102"/>
+      <c r="C138" s="103"/>
+      <c r="D138" s="103"/>
+      <c r="E138" s="103"/>
+      <c r="F138" s="103"/>
+      <c r="G138" s="94"/>
+      <c r="H138" s="94"/>
       <c r="I138" s="20"/>
       <c r="J138" s="1"/>
     </row>
@@ -4353,27 +4334,27 @@
       <c r="J140" s="1"/>
     </row>
     <row r="141" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="96" t="s">
+      <c r="A141" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="B141" s="59"/>
+      <c r="C141" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="B141" s="96"/>
-      <c r="C141" s="55" t="s">
+      <c r="D141" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="D141" s="97" t="s">
+      <c r="E141" s="60"/>
+      <c r="F141" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="E141" s="97"/>
-      <c r="F141" s="56" t="s">
+      <c r="G141" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="G141" s="57" t="s">
+      <c r="H141" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="H141" s="97" t="s">
-        <v>144</v>
-      </c>
-      <c r="I141" s="97"/>
+      <c r="I141" s="60"/>
       <c r="J141" s="1"/>
     </row>
     <row r="142" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4385,6 +4366,293 @@
     <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="311">
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A103:I103"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="A98:I98"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="A137:J137"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="F115:G115"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="F106:G109"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="F113:G113"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="D114:E117"/>
+    <mergeCell ref="B114:C117"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="F114:G114"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A119:J119"/>
+    <mergeCell ref="A121:J121"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="A141:B141"/>
     <mergeCell ref="D141:E141"/>
     <mergeCell ref="H141:I141"/>
@@ -4409,293 +4677,6 @@
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="G134:H134"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="E127:F127"/>
-    <mergeCell ref="G127:H127"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="E135:F135"/>
-    <mergeCell ref="G135:H135"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="D114:E117"/>
-    <mergeCell ref="B114:C117"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="F114:G114"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A119:J119"/>
-    <mergeCell ref="A121:J121"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="F106:G109"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="F113:G113"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A103:I103"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="A98:I98"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="A137:J137"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="G126:H126"/>
-    <mergeCell ref="F115:G115"/>
-    <mergeCell ref="H115:I115"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.35433070866141736" top="0.78740157480314965" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.39370078740157483"/>
